--- a/administratives/2020S_CE KT_Zeitaufzeichnung_Gruppe9.xlsx
+++ b/administratives/2020S_CE KT_Zeitaufzeichnung_Gruppe9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Dropbox\AAA OwnShare\JKU-Linz\4. Sem\CE KT Web\CEKT-Web\administratives\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755CE43D-5A74-4DD1-BD23-B599E1DA56DF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771E3BC9-EDBB-468E-8AEB-EFA8DBCC5FE5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="30">
   <si>
     <t>Name:</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Lernvertrag erstellen</t>
+  </si>
+  <si>
+    <t>Video - Projektidee (Powerpoint, Aufzeichnen, Bearbeiten)</t>
   </si>
 </sst>
 </file>
@@ -824,7 +827,7 @@
       </c>
       <c r="B4" s="7">
         <f>SUMIF('Deutsch Thomas'!$E$5:$E$27,Übersicht!$A4,'Deutsch Thomas'!$G$5:$G$27)</f>
-        <v>5.0000000000000009</v>
+        <v>6.0000000000000018</v>
       </c>
       <c r="C4" s="7">
         <f>SUMIF('Bolda Stefan'!$E$5:$E$27,Übersicht!$A4,'Bolda Stefan'!$G$5:$G$27)</f>
@@ -836,7 +839,7 @@
       </c>
       <c r="E4" s="7">
         <f>SUM(Übersicht!$B4:$D4)</f>
-        <v>15.000000000000004</v>
+        <v>16.000000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -950,7 +953,7 @@
       </c>
       <c r="B10" s="12">
         <f t="shared" ref="B10:D10" si="0">SUM(B4:B9)</f>
-        <v>8</v>
+        <v>9.0000000000000018</v>
       </c>
       <c r="C10" s="12">
         <f t="shared" si="0"/>
@@ -962,7 +965,7 @@
       </c>
       <c r="E10" s="12">
         <f>SUM(Übersicht!$B10:$D10)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1968,8 +1971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W996"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1996,7 +1999,7 @@
       </c>
       <c r="E1" s="5">
         <f>SUM('Deutsch Thomas'!$G$5:$G$27)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2130,18 +2133,28 @@
       <c r="W6" s="8"/>
     </row>
     <row r="7" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="A7" s="9">
+        <v>43913</v>
+      </c>
+      <c r="B7" s="10">
+        <v>0.375</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="F7" s="10">
         <f>'Deutsch Thomas'!$C7-'Deutsch Thomas'!$B7</f>
-        <v>0</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="G7" s="19">
         <f>'Deutsch Thomas'!$F7*24</f>
-        <v>0</v>
+        <v>1.0000000000000004</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -5554,7 +5567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W996"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>

--- a/administratives/2020S_CE KT_Zeitaufzeichnung_Gruppe9.xlsx
+++ b/administratives/2020S_CE KT_Zeitaufzeichnung_Gruppe9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Dropbox\AAA OwnShare\JKU-Linz\4. Sem\CE KT Web\CEKT-Web\administratives\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\Dropbox\Uni\Uni\SS 2020\CE KT\VS Anwendung\CEKT-Web\administratives\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771E3BC9-EDBB-468E-8AEB-EFA8DBCC5FE5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4937AA-C5B0-4A15-84B2-BF978E05C8EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="31">
   <si>
     <t>Name:</t>
   </si>
@@ -124,6 +126,9 @@
   </si>
   <si>
     <t>Video - Projektidee (Powerpoint, Aufzeichnen, Bearbeiten)</t>
+  </si>
+  <si>
+    <t>SQLite Datenbank auf dem Server aufsetzen, erste Table erstellen</t>
   </si>
 </sst>
 </file>
@@ -268,7 +273,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <numFmt numFmtId="165" formatCode="hh:mm"/>
     </dxf>
     <dxf>
       <font>
@@ -286,7 +291,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <numFmt numFmtId="165" formatCode="hh:mm"/>
     </dxf>
     <dxf>
       <font>
@@ -317,7 +322,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <numFmt numFmtId="165" formatCode="hh:mm"/>
     </dxf>
     <dxf>
       <font>
@@ -335,7 +340,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <numFmt numFmtId="165" formatCode="hh:mm"/>
     </dxf>
     <dxf>
       <font>
@@ -366,7 +371,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <numFmt numFmtId="165" formatCode="hh:mm"/>
     </dxf>
     <dxf>
       <font>
@@ -384,7 +389,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <numFmt numFmtId="165" formatCode="hh:mm"/>
     </dxf>
     <dxf>
       <fill>
@@ -877,11 +882,11 @@
       </c>
       <c r="D6" s="7">
         <f>SUMIF('Hinterhölzl Stefan'!$E$5:$E$31,Übersicht!$A6,'Hinterhölzl Stefan'!$G$5:$G$31)</f>
-        <v>0</v>
+        <v>1.0000000000000018</v>
       </c>
       <c r="E6" s="7">
         <f>SUM(Übersicht!$B6:$D6)</f>
-        <v>0</v>
+        <v>1.0000000000000018</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -961,11 +966,11 @@
       </c>
       <c r="D10" s="12">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9.0000000000000018</v>
       </c>
       <c r="E10" s="12">
         <f>SUM(Übersicht!$B10:$D10)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1971,7 +1976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W996"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -5567,8 +5572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W996"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5595,7 +5600,7 @@
       </c>
       <c r="E1" s="5">
         <f>SUM('Hinterhölzl Stefan'!$G$5:$G$27)</f>
-        <v>8</v>
+        <v>9.0000000000000018</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5729,18 +5734,28 @@
       <c r="W6" s="8"/>
     </row>
     <row r="7" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="A7" s="9">
+        <v>43915</v>
+      </c>
+      <c r="B7" s="10">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F7" s="10">
         <f>'Hinterhölzl Stefan'!$C7-'Hinterhölzl Stefan'!$B7</f>
-        <v>0</v>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="G7" s="19">
         <f>'Hinterhölzl Stefan'!$F7*24</f>
-        <v>0</v>
+        <v>1.0000000000000018</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>

--- a/administratives/2020S_CE KT_Zeitaufzeichnung_Gruppe9.xlsx
+++ b/administratives/2020S_CE KT_Zeitaufzeichnung_Gruppe9.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\Dropbox\Uni\Uni\SS 2020\CE KT\VS Anwendung\CEKT-Web\administratives\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan_SRV01\Desktop\URL Shortener\GIT Repository\CEKT-Web\administratives\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4937AA-C5B0-4A15-84B2-BF978E05C8EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F3B99A-E2C0-475B-B46F-6C1428ED74FD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="32">
   <si>
     <t>Name:</t>
   </si>
@@ -129,6 +127,9 @@
   </si>
   <si>
     <t>SQLite Datenbank auf dem Server aufsetzen, erste Table erstellen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erste HTML Page erstellt, Javascript Anwendung eingelesen und ausprobiert </t>
   </si>
 </sst>
 </file>
@@ -273,7 +274,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="hh:mm"/>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
     </dxf>
     <dxf>
       <font>
@@ -291,7 +292,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="hh:mm"/>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
     </dxf>
     <dxf>
       <font>
@@ -322,7 +323,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="hh:mm"/>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
     </dxf>
     <dxf>
       <font>
@@ -340,7 +341,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="hh:mm"/>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
     </dxf>
     <dxf>
       <font>
@@ -371,7 +372,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="hh:mm"/>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
     </dxf>
     <dxf>
       <font>
@@ -389,7 +390,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="hh:mm"/>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
     </dxf>
     <dxf>
       <fill>
@@ -882,11 +883,11 @@
       </c>
       <c r="D6" s="7">
         <f>SUMIF('Hinterhölzl Stefan'!$E$5:$E$31,Übersicht!$A6,'Hinterhölzl Stefan'!$G$5:$G$31)</f>
-        <v>1.0000000000000018</v>
+        <v>2.5000000000000004</v>
       </c>
       <c r="E6" s="7">
         <f>SUM(Übersicht!$B6:$D6)</f>
-        <v>1.0000000000000018</v>
+        <v>2.5000000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -966,11 +967,11 @@
       </c>
       <c r="D10" s="12">
         <f t="shared" si="0"/>
-        <v>9.0000000000000018</v>
+        <v>10.5</v>
       </c>
       <c r="E10" s="12">
         <f>SUM(Übersicht!$B10:$D10)</f>
-        <v>26</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5573,7 +5574,7 @@
   <dimension ref="A1:W996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5600,7 +5601,7 @@
       </c>
       <c r="E1" s="5">
         <f>SUM('Hinterhölzl Stefan'!$G$5:$G$27)</f>
-        <v>9.0000000000000018</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5775,18 +5776,28 @@
       <c r="W7" s="8"/>
     </row>
     <row r="8" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="A8" s="9">
+        <v>43916</v>
+      </c>
+      <c r="B8" s="10">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F8" s="10">
         <f>'Hinterhölzl Stefan'!$C8-'Hinterhölzl Stefan'!$B8</f>
-        <v>0</v>
+        <v>6.2499999999999944E-2</v>
       </c>
       <c r="G8" s="19">
         <f>'Hinterhölzl Stefan'!$F8*24</f>
-        <v>0</v>
+        <v>1.4999999999999987</v>
       </c>
       <c r="Q8" s="6"/>
       <c r="R8" s="13"/>

--- a/administratives/2020S_CE KT_Zeitaufzeichnung_Gruppe9.xlsx
+++ b/administratives/2020S_CE KT_Zeitaufzeichnung_Gruppe9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan_SRV01\Desktop\URL Shortener\GIT Repository\CEKT-Web\administratives\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F3B99A-E2C0-475B-B46F-6C1428ED74FD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102BC362-0BC0-49C4-BCE4-503CA5113152}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3015" yWindow="3510" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="33">
   <si>
     <t>Name:</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t xml:space="preserve">Erste HTML Page erstellt, Javascript Anwendung eingelesen und ausprobiert </t>
+  </si>
+  <si>
+    <t>Verbindung SQLite - Visual Code, erste Tests mit node.js</t>
   </si>
 </sst>
 </file>
@@ -883,11 +886,11 @@
       </c>
       <c r="D6" s="7">
         <f>SUMIF('Hinterhölzl Stefan'!$E$5:$E$31,Übersicht!$A6,'Hinterhölzl Stefan'!$G$5:$G$31)</f>
-        <v>2.5000000000000004</v>
+        <v>6.0000000000000018</v>
       </c>
       <c r="E6" s="7">
         <f>SUM(Übersicht!$B6:$D6)</f>
-        <v>2.5000000000000004</v>
+        <v>6.0000000000000018</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -967,11 +970,11 @@
       </c>
       <c r="D10" s="12">
         <f t="shared" si="0"/>
-        <v>10.5</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="E10" s="12">
         <f>SUM(Übersicht!$B10:$D10)</f>
-        <v>27.5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5574,7 +5577,7 @@
   <dimension ref="A1:W996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5601,7 +5604,7 @@
       </c>
       <c r="E1" s="5">
         <f>SUM('Hinterhölzl Stefan'!$G$5:$G$27)</f>
-        <v>10.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5808,18 +5811,28 @@
       <c r="W8" s="6"/>
     </row>
     <row r="9" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="A9" s="9">
+        <v>43916</v>
+      </c>
+      <c r="B9" s="10">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.8125</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F9" s="10">
         <f>'Hinterhölzl Stefan'!$C9-'Hinterhölzl Stefan'!$B9</f>
-        <v>0</v>
+        <v>0.14583333333333337</v>
       </c>
       <c r="G9" s="19">
         <f>'Hinterhölzl Stefan'!$F9*24</f>
-        <v>0</v>
+        <v>3.5000000000000009</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="8"/>

--- a/administratives/2020S_CE KT_Zeitaufzeichnung_Gruppe9.xlsx
+++ b/administratives/2020S_CE KT_Zeitaufzeichnung_Gruppe9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan_SRV01\Desktop\URL Shortener\GIT Repository\CEKT-Web\administratives\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102BC362-0BC0-49C4-BCE4-503CA5113152}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F2722A-FF70-495F-BCBC-58F42568532F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3015" yWindow="3510" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
   <si>
     <t>Name:</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>Verbindung SQLite - Visual Code, erste Tests mit node.js</t>
+  </si>
+  <si>
+    <t>Javascript SQL Querry über HTML Button starten - Versuche</t>
   </si>
 </sst>
 </file>
@@ -886,11 +889,11 @@
       </c>
       <c r="D6" s="7">
         <f>SUMIF('Hinterhölzl Stefan'!$E$5:$E$31,Übersicht!$A6,'Hinterhölzl Stefan'!$G$5:$G$31)</f>
-        <v>6.0000000000000018</v>
+        <v>6.7500000000000018</v>
       </c>
       <c r="E6" s="7">
         <f>SUM(Übersicht!$B6:$D6)</f>
-        <v>6.0000000000000018</v>
+        <v>6.7500000000000018</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -970,11 +973,11 @@
       </c>
       <c r="D10" s="12">
         <f t="shared" si="0"/>
-        <v>14.000000000000002</v>
+        <v>14.750000000000002</v>
       </c>
       <c r="E10" s="12">
         <f>SUM(Übersicht!$B10:$D10)</f>
-        <v>31</v>
+        <v>31.75</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5577,7 +5580,7 @@
   <dimension ref="A1:W996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5604,7 +5607,7 @@
       </c>
       <c r="E1" s="5">
         <f>SUM('Hinterhölzl Stefan'!$G$5:$G$27)</f>
-        <v>14</v>
+        <v>14.75</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5852,18 +5855,28 @@
       <c r="W9" s="8"/>
     </row>
     <row r="10" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="A10" s="9">
+        <v>43916</v>
+      </c>
+      <c r="B10" s="10">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0.92708333333333337</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F10" s="10">
         <f>'Hinterhölzl Stefan'!$C10-'Hinterhölzl Stefan'!$B10</f>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
       <c r="G10" s="19">
         <f>'Hinterhölzl Stefan'!$F10*24</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>

--- a/administratives/2020S_CE KT_Zeitaufzeichnung_Gruppe9.xlsx
+++ b/administratives/2020S_CE KT_Zeitaufzeichnung_Gruppe9.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan_SRV01\Desktop\URL Shortener\GIT Repository\CEKT-Web\administratives\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\Dropbox\Uni\Uni\SS 2020\CE KT\VS Anwendung\CEKT-Web\administratives\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F2722A-FF70-495F-BCBC-58F42568532F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C333ACB-F3A4-41BC-A9AA-EDD7DB0ED1A3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3015" yWindow="3510" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="35">
   <si>
     <t>Name:</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>Javascript SQL Querry über HTML Button starten - Versuche</t>
+  </si>
+  <si>
+    <t>Browesrify installiert und getestet, Client Side weiterentwickelt</t>
   </si>
 </sst>
 </file>
@@ -280,7 +283,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <numFmt numFmtId="165" formatCode="hh:mm"/>
     </dxf>
     <dxf>
       <font>
@@ -298,7 +301,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <numFmt numFmtId="165" formatCode="hh:mm"/>
     </dxf>
     <dxf>
       <font>
@@ -329,7 +332,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <numFmt numFmtId="165" formatCode="hh:mm"/>
     </dxf>
     <dxf>
       <font>
@@ -347,7 +350,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <numFmt numFmtId="165" formatCode="hh:mm"/>
     </dxf>
     <dxf>
       <font>
@@ -378,7 +381,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <numFmt numFmtId="165" formatCode="hh:mm"/>
     </dxf>
     <dxf>
       <font>
@@ -396,7 +399,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <numFmt numFmtId="165" formatCode="hh:mm"/>
     </dxf>
     <dxf>
       <fill>
@@ -889,11 +892,11 @@
       </c>
       <c r="D6" s="7">
         <f>SUMIF('Hinterhölzl Stefan'!$E$5:$E$31,Übersicht!$A6,'Hinterhölzl Stefan'!$G$5:$G$31)</f>
-        <v>6.7500000000000018</v>
+        <v>9.7500000000000018</v>
       </c>
       <c r="E6" s="7">
         <f>SUM(Übersicht!$B6:$D6)</f>
-        <v>6.7500000000000018</v>
+        <v>9.7500000000000018</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -973,11 +976,11 @@
       </c>
       <c r="D10" s="12">
         <f t="shared" si="0"/>
-        <v>14.750000000000002</v>
+        <v>17.75</v>
       </c>
       <c r="E10" s="12">
         <f>SUM(Übersicht!$B10:$D10)</f>
-        <v>31.75</v>
+        <v>34.75</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5580,7 +5583,7 @@
   <dimension ref="A1:W996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5607,7 +5610,7 @@
       </c>
       <c r="E1" s="5">
         <f>SUM('Hinterhölzl Stefan'!$G$5:$G$27)</f>
-        <v>14.75</v>
+        <v>17.75</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5896,18 +5899,28 @@
       <c r="W10" s="8"/>
     </row>
     <row r="11" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="A11" s="9">
+        <v>43923</v>
+      </c>
+      <c r="B11" s="10">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F11" s="10">
         <f>'Hinterhölzl Stefan'!$C11-'Hinterhölzl Stefan'!$B11</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="G11" s="19">
         <f>'Hinterhölzl Stefan'!$F11*24</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>

--- a/administratives/2020S_CE KT_Zeitaufzeichnung_Gruppe9.xlsx
+++ b/administratives/2020S_CE KT_Zeitaufzeichnung_Gruppe9.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan_SRV01\Desktop\URL Shortener\GIT Repository\CEKT-Web\administratives\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Dropbox\AAA OwnShare\JKU-Linz\4. Sem\CE KT Web\CEKT-Web\administratives\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F2722A-FF70-495F-BCBC-58F42568532F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB9A789-28A6-4336-ABB3-90963DD72AEA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3015" yWindow="3510" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="35">
   <si>
     <t>Name:</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>Javascript SQL Querry über HTML Button starten - Versuche</t>
+  </si>
+  <si>
+    <t>überarbeitung Lernvertrag</t>
   </si>
 </sst>
 </file>
@@ -860,7 +863,7 @@
       </c>
       <c r="B5" s="7">
         <f>SUMIF('Deutsch Thomas'!$E$5:$E$27,Übersicht!$A5,'Deutsch Thomas'!$G$5:$G$27)</f>
-        <v>3</v>
+        <v>3.5000000000000009</v>
       </c>
       <c r="C5" s="7">
         <f>SUMIF('Bolda Stefan'!$E$5:$E$27,Übersicht!$A5,'Bolda Stefan'!$G$5:$G$27)</f>
@@ -872,7 +875,7 @@
       </c>
       <c r="E5" s="7">
         <f>SUM(Übersicht!$B5:$D5)</f>
-        <v>9</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -965,7 +968,7 @@
       </c>
       <c r="B10" s="12">
         <f t="shared" ref="B10:D10" si="0">SUM(B4:B9)</f>
-        <v>9.0000000000000018</v>
+        <v>9.5000000000000036</v>
       </c>
       <c r="C10" s="12">
         <f t="shared" si="0"/>
@@ -977,7 +980,7 @@
       </c>
       <c r="E10" s="12">
         <f>SUM(Übersicht!$B10:$D10)</f>
-        <v>31.75</v>
+        <v>32.250000000000007</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1983,8 +1986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W996"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2011,7 +2014,7 @@
       </c>
       <c r="E1" s="5">
         <f>SUM('Deutsch Thomas'!$G$5:$G$27)</f>
-        <v>9</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2186,18 +2189,28 @@
       <c r="W7" s="8"/>
     </row>
     <row r="8" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="A8" s="9">
+        <v>43919</v>
+      </c>
+      <c r="B8" s="10">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0.6875</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F8" s="10">
         <f>'Deutsch Thomas'!$C8-'Deutsch Thomas'!$B8</f>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="G8" s="19">
         <f>'Deutsch Thomas'!$F8*24</f>
-        <v>0</v>
+        <v>0.50000000000000089</v>
       </c>
       <c r="Q8" s="3"/>
       <c r="R8" s="13"/>
@@ -5579,7 +5592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W996"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>

--- a/administratives/2020S_CE KT_Zeitaufzeichnung_Gruppe9.xlsx
+++ b/administratives/2020S_CE KT_Zeitaufzeichnung_Gruppe9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Dropbox\AAA OwnShare\JKU-Linz\4. Sem\CE KT Web\CEKT-Web\administratives\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB9A789-28A6-4336-ABB3-90963DD72AEA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D6BAE0-90A4-49B9-B5C8-606E4567A37F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="36">
   <si>
     <t>Name:</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>überarbeitung Lernvertrag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erreichbarkeit Server </t>
   </si>
 </sst>
 </file>
@@ -884,7 +887,7 @@
       </c>
       <c r="B6" s="7">
         <f>SUMIF('Deutsch Thomas'!$E$5:$E$27,Übersicht!$A6,'Deutsch Thomas'!$G$5:$G$27)</f>
-        <v>0</v>
+        <v>2.0000000000000009</v>
       </c>
       <c r="C6" s="7">
         <f>SUMIF('Bolda Stefan'!$E$5:$E$27,Übersicht!$A6,'Bolda Stefan'!$G$5:$G$27)</f>
@@ -896,7 +899,7 @@
       </c>
       <c r="E6" s="7">
         <f>SUM(Übersicht!$B6:$D6)</f>
-        <v>6.7500000000000018</v>
+        <v>8.7500000000000036</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -968,7 +971,7 @@
       </c>
       <c r="B10" s="12">
         <f t="shared" ref="B10:D10" si="0">SUM(B4:B9)</f>
-        <v>9.5000000000000036</v>
+        <v>11.500000000000004</v>
       </c>
       <c r="C10" s="12">
         <f t="shared" si="0"/>
@@ -980,7 +983,7 @@
       </c>
       <c r="E10" s="12">
         <f>SUM(Übersicht!$B10:$D10)</f>
-        <v>32.250000000000007</v>
+        <v>34.250000000000007</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1987,7 +1990,7 @@
   <dimension ref="A1:W996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2014,7 +2017,7 @@
       </c>
       <c r="E1" s="5">
         <f>SUM('Deutsch Thomas'!$G$5:$G$27)</f>
-        <v>9.5</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2221,18 +2224,28 @@
       <c r="W8" s="3"/>
     </row>
     <row r="9" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="A9" s="9">
+        <v>43924</v>
+      </c>
+      <c r="B9" s="10">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F9" s="10">
         <f>'Deutsch Thomas'!$C9-'Deutsch Thomas'!$B9</f>
-        <v>0</v>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="G9" s="19">
         <f>'Deutsch Thomas'!$F9*24</f>
-        <v>0</v>
+        <v>2.0000000000000009</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="8"/>

--- a/administratives/2020S_CE KT_Zeitaufzeichnung_Gruppe9.xlsx
+++ b/administratives/2020S_CE KT_Zeitaufzeichnung_Gruppe9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\Dropbox\Uni\Uni\SS 2020\CE KT\VS Anwendung\CEKT-Web\administratives\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C333ACB-F3A4-41BC-A9AA-EDD7DB0ED1A3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5E0817-CC2A-45AF-B985-D51C8FD58118}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="36">
   <si>
     <t>Name:</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>Browesrify installiert und getestet, Client Side weiterentwickelt</t>
+  </si>
+  <si>
+    <t>Erreichbarkeit des Servers bearbeitet</t>
   </si>
 </sst>
 </file>
@@ -892,11 +895,11 @@
       </c>
       <c r="D6" s="7">
         <f>SUMIF('Hinterhölzl Stefan'!$E$5:$E$31,Übersicht!$A6,'Hinterhölzl Stefan'!$G$5:$G$31)</f>
-        <v>9.7500000000000018</v>
+        <v>11.75</v>
       </c>
       <c r="E6" s="7">
         <f>SUM(Übersicht!$B6:$D6)</f>
-        <v>9.7500000000000018</v>
+        <v>11.75</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -976,11 +979,11 @@
       </c>
       <c r="D10" s="12">
         <f t="shared" si="0"/>
-        <v>17.75</v>
+        <v>19.75</v>
       </c>
       <c r="E10" s="12">
         <f>SUM(Übersicht!$B10:$D10)</f>
-        <v>34.75</v>
+        <v>36.75</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5583,7 +5586,7 @@
   <dimension ref="A1:W996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5610,7 +5613,7 @@
       </c>
       <c r="E1" s="5">
         <f>SUM('Hinterhölzl Stefan'!$G$5:$G$27)</f>
-        <v>17.75</v>
+        <v>19.75</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5940,18 +5943,28 @@
       <c r="W11" s="8"/>
     </row>
     <row r="12" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="A12" s="9">
+        <v>43892</v>
+      </c>
+      <c r="B12" s="10">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F12" s="10">
         <f>'Hinterhölzl Stefan'!$C12-'Hinterhölzl Stefan'!$B12</f>
-        <v>0</v>
+        <v>8.3333333333333259E-2</v>
       </c>
       <c r="G12" s="19">
         <f>'Hinterhölzl Stefan'!$F12*24</f>
-        <v>0</v>
+        <v>1.9999999999999982</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>

--- a/administratives/2020S_CE KT_Zeitaufzeichnung_Gruppe9.xlsx
+++ b/administratives/2020S_CE KT_Zeitaufzeichnung_Gruppe9.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Dropbox\AAA OwnShare\JKU-Linz\4. Sem\CE KT Web\CEKT-Web\administratives\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan_SRV01\Desktop\URL Shortener\GIT Repository\CEKT-Web\administratives\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D6BAE0-90A4-49B9-B5C8-606E4567A37F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31F9BEA-8774-426D-8A53-C8A8187957F2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3015" yWindow="3510" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="37">
   <si>
     <t>Name:</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t xml:space="preserve">Erreichbarkeit Server </t>
+  </si>
+  <si>
+    <t>REST API anlegen</t>
   </si>
 </sst>
 </file>
@@ -887,7 +890,7 @@
       </c>
       <c r="B6" s="7">
         <f>SUMIF('Deutsch Thomas'!$E$5:$E$27,Übersicht!$A6,'Deutsch Thomas'!$G$5:$G$27)</f>
-        <v>2.0000000000000009</v>
+        <v>5.0000000000000009</v>
       </c>
       <c r="C6" s="7">
         <f>SUMIF('Bolda Stefan'!$E$5:$E$27,Übersicht!$A6,'Bolda Stefan'!$G$5:$G$27)</f>
@@ -895,11 +898,11 @@
       </c>
       <c r="D6" s="7">
         <f>SUMIF('Hinterhölzl Stefan'!$E$5:$E$31,Übersicht!$A6,'Hinterhölzl Stefan'!$G$5:$G$31)</f>
-        <v>6.7500000000000018</v>
+        <v>11.750000000000004</v>
       </c>
       <c r="E6" s="7">
         <f>SUM(Übersicht!$B6:$D6)</f>
-        <v>8.7500000000000036</v>
+        <v>16.750000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -971,7 +974,7 @@
       </c>
       <c r="B10" s="12">
         <f t="shared" ref="B10:D10" si="0">SUM(B4:B9)</f>
-        <v>11.500000000000004</v>
+        <v>14.500000000000004</v>
       </c>
       <c r="C10" s="12">
         <f t="shared" si="0"/>
@@ -979,11 +982,11 @@
       </c>
       <c r="D10" s="12">
         <f t="shared" si="0"/>
-        <v>14.750000000000002</v>
+        <v>19.750000000000004</v>
       </c>
       <c r="E10" s="12">
         <f>SUM(Übersicht!$B10:$D10)</f>
-        <v>34.250000000000007</v>
+        <v>42.250000000000007</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1989,8 +1992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W996"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2017,7 +2020,7 @@
       </c>
       <c r="E1" s="5">
         <f>SUM('Deutsch Thomas'!$G$5:$G$27)</f>
-        <v>11.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2265,18 +2268,28 @@
       <c r="W9" s="8"/>
     </row>
     <row r="10" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="A10" s="9">
+        <v>43926</v>
+      </c>
+      <c r="B10" s="10">
+        <v>0.625</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F10" s="10">
         <f>'Deutsch Thomas'!$C10-'Deutsch Thomas'!$B10</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="G10" s="19">
         <f>'Deutsch Thomas'!$F10*24</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -5605,8 +5618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W996"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5633,7 +5646,7 @@
       </c>
       <c r="E1" s="5">
         <f>SUM('Hinterhölzl Stefan'!$G$5:$G$27)</f>
-        <v>14.75</v>
+        <v>19.75</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5922,18 +5935,28 @@
       <c r="W10" s="8"/>
     </row>
     <row r="11" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="A11" s="9">
+        <v>43924</v>
+      </c>
+      <c r="B11" s="10">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F11" s="10">
         <f>'Hinterhölzl Stefan'!$C11-'Hinterhölzl Stefan'!$B11</f>
-        <v>0</v>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="G11" s="19">
         <f>'Hinterhölzl Stefan'!$F11*24</f>
-        <v>0</v>
+        <v>2.0000000000000009</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -5953,18 +5976,28 @@
       <c r="W11" s="8"/>
     </row>
     <row r="12" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="A12" s="9">
+        <v>43926</v>
+      </c>
+      <c r="B12" s="10">
+        <v>0.625</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F12" s="10">
         <f>'Hinterhölzl Stefan'!$C12-'Hinterhölzl Stefan'!$B12</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="G12" s="19">
         <f>'Hinterhölzl Stefan'!$F12*24</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>

--- a/administratives/2020S_CE KT_Zeitaufzeichnung_Gruppe9.xlsx
+++ b/administratives/2020S_CE KT_Zeitaufzeichnung_Gruppe9.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan_SRV01\Desktop\URL Shortener\GIT Repository\CEKT-Web\administratives\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\Dropbox\Uni\Uni\SS 2020\CE KT\VS Anwendung\CEKT-Web\administratives\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31F9BEA-8774-426D-8A53-C8A8187957F2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14505289-E47D-4246-A86F-88EEC402C7C8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3015" yWindow="3510" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="42">
   <si>
     <t>Name:</t>
   </si>
@@ -145,6 +145,21 @@
   </si>
   <si>
     <t>REST API anlegen</t>
+  </si>
+  <si>
+    <t>building basic API (backend)</t>
+  </si>
+  <si>
+    <t>finalizing API</t>
+  </si>
+  <si>
+    <t>Prototyping, Visuals, Logo, Code einlesen</t>
+  </si>
+  <si>
+    <t>Angular installieren, Projekt anlegen, Frontend Developement</t>
+  </si>
+  <si>
+    <t>Frontend weiterentwickeln, erste Restcalls von der Webpage</t>
   </si>
 </sst>
 </file>
@@ -289,7 +304,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <numFmt numFmtId="165" formatCode="hh:mm"/>
     </dxf>
     <dxf>
       <font>
@@ -307,7 +322,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <numFmt numFmtId="165" formatCode="hh:mm"/>
     </dxf>
     <dxf>
       <font>
@@ -338,7 +353,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <numFmt numFmtId="165" formatCode="hh:mm"/>
     </dxf>
     <dxf>
       <font>
@@ -356,7 +371,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <numFmt numFmtId="165" formatCode="hh:mm"/>
     </dxf>
     <dxf>
       <font>
@@ -387,7 +402,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <numFmt numFmtId="165" formatCode="hh:mm"/>
     </dxf>
     <dxf>
       <font>
@@ -405,7 +420,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <numFmt numFmtId="165" formatCode="hh:mm"/>
     </dxf>
     <dxf>
       <fill>
@@ -890,19 +905,19 @@
       </c>
       <c r="B6" s="7">
         <f>SUMIF('Deutsch Thomas'!$E$5:$E$27,Übersicht!$A6,'Deutsch Thomas'!$G$5:$G$27)</f>
-        <v>5.0000000000000009</v>
+        <v>11.750000000000002</v>
       </c>
       <c r="C6" s="7">
         <f>SUMIF('Bolda Stefan'!$E$5:$E$27,Übersicht!$A6,'Bolda Stefan'!$G$5:$G$27)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7">
         <f>SUMIF('Hinterhölzl Stefan'!$E$5:$E$31,Übersicht!$A6,'Hinterhölzl Stefan'!$G$5:$G$31)</f>
-        <v>11.750000000000004</v>
+        <v>18.250000000000004</v>
       </c>
       <c r="E6" s="7">
         <f>SUM(Übersicht!$B6:$D6)</f>
-        <v>16.750000000000004</v>
+        <v>33.000000000000007</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -974,19 +989,19 @@
       </c>
       <c r="B10" s="12">
         <f t="shared" ref="B10:D10" si="0">SUM(B4:B9)</f>
-        <v>14.500000000000004</v>
+        <v>21.250000000000007</v>
       </c>
       <c r="C10" s="12">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D10" s="12">
         <f t="shared" si="0"/>
-        <v>19.750000000000004</v>
+        <v>26.250000000000004</v>
       </c>
       <c r="E10" s="12">
         <f>SUM(Übersicht!$B10:$D10)</f>
-        <v>42.250000000000007</v>
+        <v>58.500000000000014</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1993,7 +2008,7 @@
   <dimension ref="A1:W996"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:E10"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2020,7 +2035,7 @@
       </c>
       <c r="E1" s="5">
         <f>SUM('Deutsch Thomas'!$G$5:$G$27)</f>
-        <v>14.5</v>
+        <v>21.25</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2309,18 +2324,28 @@
       <c r="W10" s="8"/>
     </row>
     <row r="11" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="A11" s="9">
+        <v>43927</v>
+      </c>
+      <c r="B11" s="10">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F11" s="10">
         <f>'Deutsch Thomas'!$C11-'Deutsch Thomas'!$B11</f>
-        <v>0</v>
+        <v>0.15625000000000006</v>
       </c>
       <c r="G11" s="19">
         <f>'Deutsch Thomas'!$F11*24</f>
-        <v>0</v>
+        <v>3.7500000000000013</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -2340,18 +2365,28 @@
       <c r="W11" s="8"/>
     </row>
     <row r="12" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="A12" s="9">
+        <v>43927</v>
+      </c>
+      <c r="B12" s="10">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F12" s="10">
         <f>'Deutsch Thomas'!$C12-'Deutsch Thomas'!$B12</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="G12" s="19">
         <f>'Deutsch Thomas'!$F12*24</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -3826,7 +3861,7 @@
   <dimension ref="A1:W996"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:C6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3853,7 +3888,7 @@
       </c>
       <c r="E1" s="5">
         <f>SUM('Bolda Stefan'!$G$5:$G$27)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3987,18 +4022,28 @@
       <c r="W6" s="8"/>
     </row>
     <row r="7" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="A7" s="9">
+        <v>43927</v>
+      </c>
+      <c r="B7" s="10">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F7" s="10">
         <f>'Bolda Stefan'!$C7-'Bolda Stefan'!$B7</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="G7" s="19">
         <f>'Bolda Stefan'!$F7*24</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -5619,7 +5664,7 @@
   <dimension ref="A1:W996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5646,7 +5691,7 @@
       </c>
       <c r="E1" s="5">
         <f>SUM('Hinterhölzl Stefan'!$G$5:$G$27)</f>
-        <v>19.75</v>
+        <v>26.25</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6017,18 +6062,28 @@
       <c r="W12" s="8"/>
     </row>
     <row r="13" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="A13" s="9">
+        <v>43927</v>
+      </c>
+      <c r="B13" s="10">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F13" s="10">
         <f>'Hinterhölzl Stefan'!$C13-'Hinterhölzl Stefan'!$B13</f>
-        <v>0</v>
+        <v>0.14583333333333331</v>
       </c>
       <c r="G13" s="19">
         <f>'Hinterhölzl Stefan'!$F13*24</f>
-        <v>0</v>
+        <v>3.4999999999999996</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -6048,18 +6103,28 @@
       <c r="W13" s="6"/>
     </row>
     <row r="14" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="A14" s="9">
+        <v>43927</v>
+      </c>
+      <c r="B14" s="10">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C14" s="10">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F14" s="10">
         <f>'Hinterhölzl Stefan'!$C14-'Hinterhölzl Stefan'!$B14</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="G14" s="19">
         <f>'Hinterhölzl Stefan'!$F14*24</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>

--- a/administratives/2020S_CE KT_Zeitaufzeichnung_Gruppe9.xlsx
+++ b/administratives/2020S_CE KT_Zeitaufzeichnung_Gruppe9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\Dropbox\Uni\Uni\SS 2020\CE KT\VS Anwendung\CEKT-Web\administratives\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14505289-E47D-4246-A86F-88EEC402C7C8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682D349F-FDFE-4AFC-ABD7-9B041DABB76A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="43">
   <si>
     <t>Name:</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>Frontend weiterentwickeln, erste Restcalls von der Webpage</t>
+  </si>
+  <si>
+    <t>Frontend weiterentwickelt, Get, Post, Delete möglich - aber kein Errorhandling</t>
   </si>
 </sst>
 </file>
@@ -913,11 +916,11 @@
       </c>
       <c r="D6" s="7">
         <f>SUMIF('Hinterhölzl Stefan'!$E$5:$E$31,Übersicht!$A6,'Hinterhölzl Stefan'!$G$5:$G$31)</f>
-        <v>18.250000000000004</v>
+        <v>21.250000000000004</v>
       </c>
       <c r="E6" s="7">
         <f>SUM(Übersicht!$B6:$D6)</f>
-        <v>33.000000000000007</v>
+        <v>36.000000000000007</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -997,11 +1000,11 @@
       </c>
       <c r="D10" s="12">
         <f t="shared" si="0"/>
-        <v>26.250000000000004</v>
+        <v>29.250000000000004</v>
       </c>
       <c r="E10" s="12">
         <f>SUM(Übersicht!$B10:$D10)</f>
-        <v>58.500000000000014</v>
+        <v>61.500000000000014</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5664,7 +5667,7 @@
   <dimension ref="A1:W996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5691,7 +5694,7 @@
       </c>
       <c r="E1" s="5">
         <f>SUM('Hinterhölzl Stefan'!$G$5:$G$27)</f>
-        <v>26.25</v>
+        <v>29.25</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6144,18 +6147,28 @@
       <c r="W14" s="8"/>
     </row>
     <row r="15" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="A15" s="9">
+        <v>43927</v>
+      </c>
+      <c r="B15" s="10">
+        <v>0.875</v>
+      </c>
+      <c r="C15" s="10">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F15" s="10">
         <f>'Hinterhölzl Stefan'!$C15-'Hinterhölzl Stefan'!$B15</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="G15" s="19">
         <f>'Hinterhölzl Stefan'!$F15*24</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>

--- a/administratives/2020S_CE KT_Zeitaufzeichnung_Gruppe9.xlsx
+++ b/administratives/2020S_CE KT_Zeitaufzeichnung_Gruppe9.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\Dropbox\Uni\Uni\SS 2020\CE KT\VS Anwendung\CEKT-Web\administratives\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Dropbox\AAA OwnShare\JKU-Linz\4. Sem\CE KT Web\CEKT-Web\administratives\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682D349F-FDFE-4AFC-ABD7-9B041DABB76A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3685574-03EB-4DAA-9DE6-97A36CCADF6A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="45">
   <si>
     <t>Name:</t>
   </si>
@@ -163,6 +163,12 @@
   </si>
   <si>
     <t>Frontend weiterentwickelt, Get, Post, Delete möglich - aber kein Errorhandling</t>
+  </si>
+  <si>
+    <t>routing Frontend</t>
+  </si>
+  <si>
+    <t>redirecting und rebuilding frontend - erzeugung mainpage und redirecting page</t>
   </si>
 </sst>
 </file>
@@ -307,7 +313,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="hh:mm"/>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
     </dxf>
     <dxf>
       <font>
@@ -325,7 +331,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="hh:mm"/>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
     </dxf>
     <dxf>
       <font>
@@ -356,7 +362,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="hh:mm"/>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
     </dxf>
     <dxf>
       <font>
@@ -374,7 +380,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="hh:mm"/>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
     </dxf>
     <dxf>
       <font>
@@ -405,7 +411,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="hh:mm"/>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
     </dxf>
     <dxf>
       <font>
@@ -423,7 +429,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="hh:mm"/>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
     </dxf>
     <dxf>
       <fill>
@@ -908,7 +914,7 @@
       </c>
       <c r="B6" s="7">
         <f>SUMIF('Deutsch Thomas'!$E$5:$E$27,Übersicht!$A6,'Deutsch Thomas'!$G$5:$G$27)</f>
-        <v>11.750000000000002</v>
+        <v>23.75</v>
       </c>
       <c r="C6" s="7">
         <f>SUMIF('Bolda Stefan'!$E$5:$E$27,Übersicht!$A6,'Bolda Stefan'!$G$5:$G$27)</f>
@@ -920,7 +926,7 @@
       </c>
       <c r="E6" s="7">
         <f>SUM(Übersicht!$B6:$D6)</f>
-        <v>36.000000000000007</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -992,7 +998,7 @@
       </c>
       <c r="B10" s="12">
         <f t="shared" ref="B10:D10" si="0">SUM(B4:B9)</f>
-        <v>21.250000000000007</v>
+        <v>33.25</v>
       </c>
       <c r="C10" s="12">
         <f t="shared" si="0"/>
@@ -1004,7 +1010,7 @@
       </c>
       <c r="E10" s="12">
         <f>SUM(Übersicht!$B10:$D10)</f>
-        <v>61.500000000000014</v>
+        <v>73.5</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2010,8 +2016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W996"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2038,7 +2044,7 @@
       </c>
       <c r="E1" s="5">
         <f>SUM('Deutsch Thomas'!$G$5:$G$27)</f>
-        <v>21.25</v>
+        <v>33.25</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2409,18 +2415,28 @@
       <c r="W12" s="8"/>
     </row>
     <row r="13" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="A13" s="9">
+        <v>43928</v>
+      </c>
+      <c r="B13" s="10">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F13" s="10">
         <f>'Deutsch Thomas'!$C13-'Deutsch Thomas'!$B13</f>
-        <v>0</v>
+        <v>0.12499999999999994</v>
       </c>
       <c r="G13" s="19">
         <f>'Deutsch Thomas'!$F13*24</f>
-        <v>0</v>
+        <v>2.9999999999999987</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -2440,18 +2456,28 @@
       <c r="W13" s="3"/>
     </row>
     <row r="14" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="A14" s="9">
+        <v>43929</v>
+      </c>
+      <c r="B14" s="10">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C14" s="10">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F14" s="10">
         <f>'Deutsch Thomas'!$C14-'Deutsch Thomas'!$B14</f>
-        <v>0</v>
+        <v>0.37500000000000006</v>
       </c>
       <c r="G14" s="19">
         <f>'Deutsch Thomas'!$F14*24</f>
-        <v>0</v>
+        <v>9.0000000000000018</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -5666,7 +5692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W996"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>

--- a/administratives/2020S_CE KT_Zeitaufzeichnung_Gruppe9.xlsx
+++ b/administratives/2020S_CE KT_Zeitaufzeichnung_Gruppe9.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Dropbox\AAA OwnShare\JKU-Linz\4. Sem\CE KT Web\CEKT-Web\administratives\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\Dropbox\Uni\Uni\SS 2020\CE KT\VS Anwendung\CEKT-Web\administratives\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3685574-03EB-4DAA-9DE6-97A36CCADF6A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E7C405-AD17-4063-B2C7-6A16345F57D0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="48">
   <si>
     <t>Name:</t>
   </si>
@@ -169,6 +169,15 @@
   </si>
   <si>
     <t>redirecting und rebuilding frontend - erzeugung mainpage und redirecting page</t>
+  </si>
+  <si>
+    <t>Frontend weiterentwickelt, Main Page Aufbau, Routing</t>
+  </si>
+  <si>
+    <t>Serverwartung, neu aufsetzen, Projekt neu initialisieren</t>
+  </si>
+  <si>
+    <t>Frontend Routing</t>
   </si>
 </sst>
 </file>
@@ -313,7 +322,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <numFmt numFmtId="165" formatCode="hh:mm"/>
     </dxf>
     <dxf>
       <font>
@@ -331,7 +340,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <numFmt numFmtId="165" formatCode="hh:mm"/>
     </dxf>
     <dxf>
       <font>
@@ -362,7 +371,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <numFmt numFmtId="165" formatCode="hh:mm"/>
     </dxf>
     <dxf>
       <font>
@@ -380,7 +389,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <numFmt numFmtId="165" formatCode="hh:mm"/>
     </dxf>
     <dxf>
       <font>
@@ -411,7 +420,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <numFmt numFmtId="165" formatCode="hh:mm"/>
     </dxf>
     <dxf>
       <font>
@@ -429,7 +438,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <numFmt numFmtId="165" formatCode="hh:mm"/>
     </dxf>
     <dxf>
       <fill>
@@ -922,11 +931,11 @@
       </c>
       <c r="D6" s="7">
         <f>SUMIF('Hinterhölzl Stefan'!$E$5:$E$31,Übersicht!$A6,'Hinterhölzl Stefan'!$G$5:$G$31)</f>
-        <v>21.250000000000004</v>
+        <v>33.75</v>
       </c>
       <c r="E6" s="7">
         <f>SUM(Übersicht!$B6:$D6)</f>
-        <v>48</v>
+        <v>60.5</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1006,11 +1015,11 @@
       </c>
       <c r="D10" s="12">
         <f t="shared" si="0"/>
-        <v>29.250000000000004</v>
+        <v>41.75</v>
       </c>
       <c r="E10" s="12">
         <f>SUM(Übersicht!$B10:$D10)</f>
-        <v>73.5</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2016,7 +2025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W996"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -5692,8 +5701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W996"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5720,7 +5729,7 @@
       </c>
       <c r="E1" s="5">
         <f>SUM('Hinterhölzl Stefan'!$G$5:$G$27)</f>
-        <v>29.25</v>
+        <v>41.75</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6214,18 +6223,28 @@
       <c r="W15" s="6"/>
     </row>
     <row r="16" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="A16" s="9">
+        <v>43928</v>
+      </c>
+      <c r="B16" s="10">
+        <v>0.375</v>
+      </c>
+      <c r="C16" s="10">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F16" s="10">
         <f>'Hinterhölzl Stefan'!$C16-'Hinterhölzl Stefan'!$B16</f>
-        <v>0</v>
+        <v>0.13541666666666663</v>
       </c>
       <c r="G16" s="19">
         <f>'Hinterhölzl Stefan'!$F16*24</f>
-        <v>0</v>
+        <v>3.2499999999999991</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -6245,18 +6264,28 @@
       <c r="W16" s="8"/>
     </row>
     <row r="17" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
+      <c r="A17" s="9">
+        <v>43928</v>
+      </c>
+      <c r="B17" s="10">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C17" s="10">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F17" s="10">
         <f>'Hinterhölzl Stefan'!$C17-'Hinterhölzl Stefan'!$B17</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="G17" s="19">
         <f>'Hinterhölzl Stefan'!$F17*24</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -6276,18 +6305,28 @@
       <c r="W17" s="6"/>
     </row>
     <row r="18" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+      <c r="A18" s="9">
+        <v>43929</v>
+      </c>
+      <c r="B18" s="10">
+        <v>0.375</v>
+      </c>
+      <c r="C18" s="10">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F18" s="10">
         <f>'Hinterhölzl Stefan'!$C18-'Hinterhölzl Stefan'!$B18</f>
-        <v>0</v>
+        <v>0.13541666666666663</v>
       </c>
       <c r="G18" s="19">
         <f>'Hinterhölzl Stefan'!$F18*24</f>
-        <v>0</v>
+        <v>3.2499999999999991</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -6307,18 +6346,28 @@
       <c r="W18" s="8"/>
     </row>
     <row r="19" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+      <c r="A19" s="9">
+        <v>43929</v>
+      </c>
+      <c r="B19" s="10">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C19" s="10">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F19" s="10">
         <f>'Hinterhölzl Stefan'!$C19-'Hinterhölzl Stefan'!$B19</f>
-        <v>0</v>
+        <v>0.1875</v>
       </c>
       <c r="G19" s="19">
         <f>'Hinterhölzl Stefan'!$F19*24</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>

--- a/administratives/2020S_CE KT_Zeitaufzeichnung_Gruppe9.xlsx
+++ b/administratives/2020S_CE KT_Zeitaufzeichnung_Gruppe9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\Dropbox\Uni\Uni\SS 2020\CE KT\VS Anwendung\CEKT-Web\administratives\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E7C405-AD17-4063-B2C7-6A16345F57D0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F6DD39-0C25-47D0-B729-5AACBA145E9C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="49">
   <si>
     <t>Name:</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>Frontend Routing</t>
+  </si>
+  <si>
+    <t>Versuche Website auf IIS zu Deployn - ständig Fehler 500.19</t>
   </si>
 </sst>
 </file>
@@ -931,11 +934,11 @@
       </c>
       <c r="D6" s="7">
         <f>SUMIF('Hinterhölzl Stefan'!$E$5:$E$31,Übersicht!$A6,'Hinterhölzl Stefan'!$G$5:$G$31)</f>
-        <v>33.75</v>
+        <v>35.75</v>
       </c>
       <c r="E6" s="7">
         <f>SUM(Übersicht!$B6:$D6)</f>
-        <v>60.5</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1015,11 +1018,11 @@
       </c>
       <c r="D10" s="12">
         <f t="shared" si="0"/>
-        <v>41.75</v>
+        <v>43.75</v>
       </c>
       <c r="E10" s="12">
         <f>SUM(Übersicht!$B10:$D10)</f>
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5702,7 +5705,7 @@
   <dimension ref="A1:W996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5729,7 +5732,7 @@
       </c>
       <c r="E1" s="5">
         <f>SUM('Hinterhölzl Stefan'!$G$5:$G$27)</f>
-        <v>41.75</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6387,18 +6390,28 @@
       <c r="W19" s="8"/>
     </row>
     <row r="20" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+      <c r="A20" s="9">
+        <v>43930</v>
+      </c>
+      <c r="B20" s="10">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C20" s="10">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F20" s="10">
         <f>'Hinterhölzl Stefan'!$C20-'Hinterhölzl Stefan'!$B20</f>
-        <v>0</v>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="G20" s="19">
         <f>'Hinterhölzl Stefan'!$F20*24</f>
-        <v>0</v>
+        <v>2.0000000000000009</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>

--- a/administratives/2020S_CE KT_Zeitaufzeichnung_Gruppe9.xlsx
+++ b/administratives/2020S_CE KT_Zeitaufzeichnung_Gruppe9.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\Dropbox\Uni\Uni\SS 2020\CE KT\VS Anwendung\CEKT-Web\administratives\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Dropbox\AAA OwnShare\JKU-Linz\4. Sem\CE KT Web\CEKT-Web\administratives\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F6DD39-0C25-47D0-B729-5AACBA145E9C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0D5788-0BE5-4F47-BC9C-C7666C9E6A1F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="50">
   <si>
     <t>Name:</t>
   </si>
@@ -182,6 +182,9 @@
   <si>
     <t>Versuche Website auf IIS zu Deployn - ständig Fehler 500.19</t>
   </si>
+  <si>
+    <t>Server für webhosting und routing im frontend</t>
+  </si>
 </sst>
 </file>
 
@@ -325,7 +328,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="hh:mm"/>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
     </dxf>
     <dxf>
       <font>
@@ -343,7 +346,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="hh:mm"/>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
     </dxf>
     <dxf>
       <font>
@@ -374,7 +377,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="hh:mm"/>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
     </dxf>
     <dxf>
       <font>
@@ -392,7 +395,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="hh:mm"/>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
     </dxf>
     <dxf>
       <font>
@@ -423,7 +426,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="hh:mm"/>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
     </dxf>
     <dxf>
       <font>
@@ -441,7 +444,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="hh:mm"/>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
     </dxf>
     <dxf>
       <fill>
@@ -840,7 +843,7 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -926,7 +929,7 @@
       </c>
       <c r="B6" s="7">
         <f>SUMIF('Deutsch Thomas'!$E$5:$E$27,Übersicht!$A6,'Deutsch Thomas'!$G$5:$G$27)</f>
-        <v>23.75</v>
+        <v>31.75</v>
       </c>
       <c r="C6" s="7">
         <f>SUMIF('Bolda Stefan'!$E$5:$E$27,Übersicht!$A6,'Bolda Stefan'!$G$5:$G$27)</f>
@@ -938,7 +941,7 @@
       </c>
       <c r="E6" s="7">
         <f>SUM(Übersicht!$B6:$D6)</f>
-        <v>62.5</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1010,7 +1013,7 @@
       </c>
       <c r="B10" s="12">
         <f t="shared" ref="B10:D10" si="0">SUM(B4:B9)</f>
-        <v>33.25</v>
+        <v>41.25</v>
       </c>
       <c r="C10" s="12">
         <f t="shared" si="0"/>
@@ -1022,7 +1025,7 @@
       </c>
       <c r="E10" s="12">
         <f>SUM(Übersicht!$B10:$D10)</f>
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2029,7 +2032,7 @@
   <dimension ref="A1:W996"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2056,7 +2059,7 @@
       </c>
       <c r="E1" s="5">
         <f>SUM('Deutsch Thomas'!$G$5:$G$27)</f>
-        <v>33.25</v>
+        <v>41.25</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2509,18 +2512,28 @@
       <c r="W14" s="8"/>
     </row>
     <row r="15" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="A15" s="9">
+        <v>43934</v>
+      </c>
+      <c r="B15" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="C15" s="10">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F15" s="10">
         <f>'Deutsch Thomas'!$C15-'Deutsch Thomas'!$B15</f>
-        <v>0</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="G15" s="19">
         <f>'Deutsch Thomas'!$F15*24</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -5705,7 +5718,7 @@
   <dimension ref="A1:W996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6431,11 +6444,6 @@
       <c r="W20" s="8"/>
     </row>
     <row r="21" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
       <c r="F21" s="10">
         <f>'Hinterhölzl Stefan'!$C21-'Hinterhölzl Stefan'!$B21</f>
         <v>0</v>
@@ -7621,7 +7629,7 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Q8 W8 L13 S13 L15 S15" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Projektidee,Lernvertrag,Meilenstein 1,Meilenstein 2,Meilenstein 3,Messeunterlagen"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E5:E27" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E5:E20 E22:E27" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"Projektidee,Lernvertrag,Meilenstein 1,Meilenstein 2,Meilenstein 3,Endabgabe"</formula1>
     </dataValidation>
   </dataValidations>

--- a/administratives/2020S_CE KT_Zeitaufzeichnung_Gruppe9.xlsx
+++ b/administratives/2020S_CE KT_Zeitaufzeichnung_Gruppe9.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Dropbox\AAA OwnShare\JKU-Linz\4. Sem\CE KT Web\CEKT-Web\administratives\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\Dropbox\Uni\Uni\SS 2020\CE KT\VS Anwendung\CEKT-Web\administratives\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0D5788-0BE5-4F47-BC9C-C7666C9E6A1F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1046C0-2193-4C9E-878E-D867CFC09FB0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="51">
   <si>
     <t>Name:</t>
   </si>
@@ -185,6 +185,9 @@
   <si>
     <t>Server für webhosting und routing im frontend</t>
   </si>
+  <si>
+    <t>Hosting der Seite, Bearbeiten der Frontend Page</t>
+  </si>
 </sst>
 </file>
 
@@ -328,7 +331,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <numFmt numFmtId="165" formatCode="hh:mm"/>
     </dxf>
     <dxf>
       <font>
@@ -346,7 +349,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <numFmt numFmtId="165" formatCode="hh:mm"/>
     </dxf>
     <dxf>
       <font>
@@ -377,7 +380,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <numFmt numFmtId="165" formatCode="hh:mm"/>
     </dxf>
     <dxf>
       <font>
@@ -395,7 +398,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <numFmt numFmtId="165" formatCode="hh:mm"/>
     </dxf>
     <dxf>
       <font>
@@ -426,7 +429,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <numFmt numFmtId="165" formatCode="hh:mm"/>
     </dxf>
     <dxf>
       <font>
@@ -444,7 +447,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <numFmt numFmtId="165" formatCode="hh:mm"/>
     </dxf>
     <dxf>
       <fill>
@@ -937,11 +940,11 @@
       </c>
       <c r="D6" s="7">
         <f>SUMIF('Hinterhölzl Stefan'!$E$5:$E$31,Übersicht!$A6,'Hinterhölzl Stefan'!$G$5:$G$31)</f>
-        <v>35.75</v>
+        <v>40.25</v>
       </c>
       <c r="E6" s="7">
         <f>SUM(Übersicht!$B6:$D6)</f>
-        <v>70.5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1021,11 +1024,11 @@
       </c>
       <c r="D10" s="12">
         <f t="shared" si="0"/>
-        <v>43.75</v>
+        <v>48.25</v>
       </c>
       <c r="E10" s="12">
         <f>SUM(Übersicht!$B10:$D10)</f>
-        <v>96</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5718,7 +5721,7 @@
   <dimension ref="A1:W996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5745,7 +5748,7 @@
       </c>
       <c r="E1" s="5">
         <f>SUM('Hinterhölzl Stefan'!$G$5:$G$27)</f>
-        <v>43.75</v>
+        <v>48.25</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6444,13 +6447,28 @@
       <c r="W20" s="8"/>
     </row>
     <row r="21" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>43934</v>
+      </c>
+      <c r="B21" s="10">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C21" s="10">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F21" s="10">
         <f>'Hinterhölzl Stefan'!$C21-'Hinterhölzl Stefan'!$B21</f>
-        <v>0</v>
+        <v>0.1875</v>
       </c>
       <c r="G21" s="19">
         <f>'Hinterhölzl Stefan'!$F21*24</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>

--- a/administratives/2020S_CE KT_Zeitaufzeichnung_Gruppe9.xlsx
+++ b/administratives/2020S_CE KT_Zeitaufzeichnung_Gruppe9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\Dropbox\Uni\Uni\SS 2020\CE KT\VS Anwendung\CEKT-Web\administratives\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1046C0-2193-4C9E-878E-D867CFC09FB0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5785A2B-CCED-49F2-A583-EA17DF5B43F4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="52">
   <si>
     <t>Name:</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>Hosting der Seite, Bearbeiten der Frontend Page</t>
+  </si>
+  <si>
+    <t>CSS Styling, Frontend Tweaking, Error Handling</t>
   </si>
 </sst>
 </file>
@@ -940,11 +943,11 @@
       </c>
       <c r="D6" s="7">
         <f>SUMIF('Hinterhölzl Stefan'!$E$5:$E$31,Übersicht!$A6,'Hinterhölzl Stefan'!$G$5:$G$31)</f>
-        <v>40.25</v>
+        <v>47.25</v>
       </c>
       <c r="E6" s="7">
         <f>SUM(Übersicht!$B6:$D6)</f>
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1024,11 +1027,11 @@
       </c>
       <c r="D10" s="12">
         <f t="shared" si="0"/>
-        <v>48.25</v>
+        <v>55.25</v>
       </c>
       <c r="E10" s="12">
         <f>SUM(Übersicht!$B10:$D10)</f>
-        <v>100.5</v>
+        <v>107.5</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5721,7 +5724,7 @@
   <dimension ref="A1:W996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5748,7 +5751,7 @@
       </c>
       <c r="E1" s="5">
         <f>SUM('Hinterhölzl Stefan'!$G$5:$G$27)</f>
-        <v>48.25</v>
+        <v>55.25</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6488,18 +6491,28 @@
       <c r="W21" s="8"/>
     </row>
     <row r="22" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+      <c r="A22" s="9">
+        <v>43935</v>
+      </c>
+      <c r="B22" s="10">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C22" s="10">
+        <v>0.625</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F22" s="10">
         <f>'Hinterhölzl Stefan'!$C22-'Hinterhölzl Stefan'!$B22</f>
-        <v>0</v>
+        <v>0.16666666666666669</v>
       </c>
       <c r="G22" s="19">
         <f>'Hinterhölzl Stefan'!$F22*24</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -6519,18 +6532,28 @@
       <c r="W22" s="8"/>
     </row>
     <row r="23" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
+      <c r="A23" s="9">
+        <v>43935</v>
+      </c>
+      <c r="B23" s="10">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C23" s="10">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F23" s="10">
         <f>'Hinterhölzl Stefan'!$C23-'Hinterhölzl Stefan'!$B23</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="G23" s="19">
         <f>'Hinterhölzl Stefan'!$F23*24</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>

--- a/administratives/2020S_CE KT_Zeitaufzeichnung_Gruppe9.xlsx
+++ b/administratives/2020S_CE KT_Zeitaufzeichnung_Gruppe9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\Dropbox\Uni\Uni\SS 2020\CE KT\VS Anwendung\CEKT-Web\administratives\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5785A2B-CCED-49F2-A583-EA17DF5B43F4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3860FDEF-9276-42CC-8B65-DB4FE396BDCE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="3150" windowWidth="28800" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="55">
   <si>
     <t>Name:</t>
   </si>
@@ -191,6 +191,15 @@
   <si>
     <t>CSS Styling, Frontend Tweaking, Error Handling</t>
   </si>
+  <si>
+    <t>Theoretische Ausarbeitung</t>
+  </si>
+  <si>
+    <t>Frontend Design HTML, Materialize, Mainpage redesign</t>
+  </si>
+  <si>
+    <t>Projektfortschritt besprechen, routing frontend</t>
+  </si>
 </sst>
 </file>
 
@@ -210,28 +219,33 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -273,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -300,6 +314,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -603,7 +618,9 @@
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Ende" dataDxfId="7"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Tätigkeit"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Meilenstein"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Zeit"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Zeit">
+      <calculatedColumnFormula>'Deutsch Thomas'!$C5-'Deutsch Thomas'!$B5</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Stunden" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="Christian Berer-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
@@ -848,7 +865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -935,19 +952,19 @@
       </c>
       <c r="B6" s="7">
         <f>SUMIF('Deutsch Thomas'!$E$5:$E$27,Übersicht!$A6,'Deutsch Thomas'!$G$5:$G$27)</f>
-        <v>31.75</v>
+        <v>35.750000000000007</v>
       </c>
       <c r="C6" s="7">
         <f>SUMIF('Bolda Stefan'!$E$5:$E$27,Übersicht!$A6,'Bolda Stefan'!$G$5:$G$27)</f>
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D6" s="7">
         <f>SUMIF('Hinterhölzl Stefan'!$E$5:$E$31,Übersicht!$A6,'Hinterhölzl Stefan'!$G$5:$G$31)</f>
-        <v>47.25</v>
+        <v>51.25</v>
       </c>
       <c r="E6" s="7">
         <f>SUM(Übersicht!$B6:$D6)</f>
-        <v>82</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1019,19 +1036,19 @@
       </c>
       <c r="B10" s="12">
         <f t="shared" ref="B10:D10" si="0">SUM(B4:B9)</f>
-        <v>41.25</v>
+        <v>45.250000000000014</v>
       </c>
       <c r="C10" s="12">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D10" s="12">
         <f t="shared" si="0"/>
-        <v>55.25</v>
+        <v>59.25</v>
       </c>
       <c r="E10" s="12">
         <f>SUM(Übersicht!$B10:$D10)</f>
-        <v>107.5</v>
+        <v>130.5</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2038,7 +2055,7 @@
   <dimension ref="A1:W996"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2065,7 +2082,7 @@
       </c>
       <c r="E1" s="5">
         <f>SUM('Deutsch Thomas'!$G$5:$G$27)</f>
-        <v>41.25</v>
+        <v>45.25</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2314,27 +2331,27 @@
     </row>
     <row r="10" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
-        <v>43926</v>
-      </c>
-      <c r="B10" s="10">
-        <v>0.625</v>
-      </c>
-      <c r="C10" s="10">
-        <v>0.75</v>
+        <v>43925</v>
+      </c>
+      <c r="B10" s="22">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C10" s="22">
+        <v>0.70833333333333337</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="10">
         <f>'Deutsch Thomas'!$C10-'Deutsch Thomas'!$B10</f>
-        <v>0.125</v>
+        <v>0.16666666666666674</v>
       </c>
       <c r="G10" s="19">
         <f>'Deutsch Thomas'!$F10*24</f>
-        <v>3</v>
+        <v>4.0000000000000018</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -2355,27 +2372,27 @@
     </row>
     <row r="11" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
-        <v>43927</v>
+        <v>43926</v>
       </c>
       <c r="B11" s="10">
-        <v>0.39583333333333331</v>
+        <v>0.625</v>
       </c>
       <c r="C11" s="10">
-        <v>0.55208333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F11" s="10">
         <f>'Deutsch Thomas'!$C11-'Deutsch Thomas'!$B11</f>
-        <v>0.15625000000000006</v>
+        <v>0.125</v>
       </c>
       <c r="G11" s="19">
         <f>'Deutsch Thomas'!$F11*24</f>
-        <v>3.7500000000000013</v>
+        <v>3</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -2399,24 +2416,24 @@
         <v>43927</v>
       </c>
       <c r="B12" s="10">
-        <v>0.70833333333333337</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="C12" s="10">
-        <v>0.83333333333333337</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="10">
         <f>'Deutsch Thomas'!$C12-'Deutsch Thomas'!$B12</f>
-        <v>0.125</v>
+        <v>0.15625000000000006</v>
       </c>
       <c r="G12" s="19">
         <f>'Deutsch Thomas'!$F12*24</f>
-        <v>3</v>
+        <v>3.7500000000000013</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -2437,27 +2454,27 @@
     </row>
     <row r="13" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
-        <v>43928</v>
+        <v>43927</v>
       </c>
       <c r="B13" s="10">
-        <v>0.41666666666666669</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="C13" s="10">
-        <v>0.54166666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="10">
         <f>'Deutsch Thomas'!$C13-'Deutsch Thomas'!$B13</f>
-        <v>0.12499999999999994</v>
+        <v>0.125</v>
       </c>
       <c r="G13" s="19">
         <f>'Deutsch Thomas'!$F13*24</f>
-        <v>2.9999999999999987</v>
+        <v>3</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -2478,27 +2495,27 @@
     </row>
     <row r="14" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
-        <v>43929</v>
+        <v>43928</v>
       </c>
       <c r="B14" s="10">
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C14" s="10">
-        <v>0.83333333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="10">
         <f>'Deutsch Thomas'!$C14-'Deutsch Thomas'!$B14</f>
-        <v>0.37500000000000006</v>
+        <v>0.12499999999999994</v>
       </c>
       <c r="G14" s="19">
         <f>'Deutsch Thomas'!$F14*24</f>
-        <v>9.0000000000000018</v>
+        <v>2.9999999999999987</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -2519,27 +2536,27 @@
     </row>
     <row r="15" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
-        <v>43934</v>
+        <v>43929</v>
       </c>
       <c r="B15" s="10">
-        <v>0.5</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="C15" s="10">
         <v>0.83333333333333337</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="10">
         <f>'Deutsch Thomas'!$C15-'Deutsch Thomas'!$B15</f>
-        <v>0.33333333333333337</v>
+        <v>0.37500000000000006</v>
       </c>
       <c r="G15" s="19">
         <f>'Deutsch Thomas'!$F15*24</f>
-        <v>8</v>
+        <v>9.0000000000000018</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -2559,18 +2576,28 @@
       <c r="W15" s="3"/>
     </row>
     <row r="16" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="A16" s="9">
+        <v>43934</v>
+      </c>
+      <c r="B16" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="C16" s="10">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F16" s="10">
         <f>'Deutsch Thomas'!$C16-'Deutsch Thomas'!$B16</f>
-        <v>0</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="G16" s="19">
         <f>'Deutsch Thomas'!$F16*24</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -3921,7 +3948,7 @@
   <dimension ref="A1:W996"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3948,7 +3975,7 @@
       </c>
       <c r="E1" s="5">
         <f>SUM('Bolda Stefan'!$G$5:$G$27)</f>
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4083,27 +4110,27 @@
     </row>
     <row r="7" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
-        <v>43927</v>
+        <v>43925</v>
       </c>
       <c r="B7" s="10">
-        <v>0.70833333333333337</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="C7" s="10">
-        <v>0.83333333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="10">
         <f>'Bolda Stefan'!$C7-'Bolda Stefan'!$B7</f>
-        <v>0.125</v>
+        <v>0.16666666666666669</v>
       </c>
       <c r="G7" s="19">
         <f>'Bolda Stefan'!$F7*24</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -4123,18 +4150,28 @@
       <c r="W7" s="8"/>
     </row>
     <row r="8" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="A8" s="9">
+        <v>43927</v>
+      </c>
+      <c r="B8" s="10">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F8" s="10">
         <f>'Bolda Stefan'!$C8-'Bolda Stefan'!$B8</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="G8" s="19">
         <f>'Bolda Stefan'!$F8*24</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q8" s="6"/>
       <c r="R8" s="13"/>
@@ -4145,18 +4182,28 @@
       <c r="W8" s="6"/>
     </row>
     <row r="9" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="A9" s="9">
+        <v>43928</v>
+      </c>
+      <c r="B9" s="10">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F9" s="10">
         <f>'Bolda Stefan'!$C9-'Bolda Stefan'!$B9</f>
-        <v>0</v>
+        <v>0.12499999999999994</v>
       </c>
       <c r="G9" s="19">
         <f>'Bolda Stefan'!$F9*24</f>
-        <v>0</v>
+        <v>2.9999999999999987</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="8"/>
@@ -4176,18 +4223,28 @@
       <c r="W9" s="8"/>
     </row>
     <row r="10" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="A10" s="9">
+        <v>43935</v>
+      </c>
+      <c r="B10" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F10" s="10">
         <f>'Bolda Stefan'!$C10-'Bolda Stefan'!$B10</f>
-        <v>0</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="G10" s="19">
         <f>'Bolda Stefan'!$F10*24</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -5723,8 +5780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W996"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5751,7 +5808,7 @@
       </c>
       <c r="E1" s="5">
         <f>SUM('Hinterhölzl Stefan'!$G$5:$G$27)</f>
-        <v>55.25</v>
+        <v>59.25</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6082,27 +6139,27 @@
     </row>
     <row r="12" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
-        <v>43926</v>
-      </c>
-      <c r="B12" s="10">
-        <v>0.625</v>
-      </c>
-      <c r="C12" s="10">
-        <v>0.75</v>
+        <v>43925</v>
+      </c>
+      <c r="B12" s="22">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C12" s="22">
+        <v>0.70833333333333337</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="10">
         <f>'Hinterhölzl Stefan'!$C12-'Hinterhölzl Stefan'!$B12</f>
-        <v>0.125</v>
+        <v>0.16666666666666674</v>
       </c>
       <c r="G12" s="19">
         <f>'Hinterhölzl Stefan'!$F12*24</f>
-        <v>3</v>
+        <v>4.0000000000000018</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -6123,27 +6180,27 @@
     </row>
     <row r="13" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
-        <v>43927</v>
+        <v>43926</v>
       </c>
       <c r="B13" s="10">
-        <v>0.39583333333333331</v>
+        <v>0.625</v>
       </c>
       <c r="C13" s="10">
-        <v>0.54166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="10">
         <f>'Hinterhölzl Stefan'!$C13-'Hinterhölzl Stefan'!$B13</f>
-        <v>0.14583333333333331</v>
+        <v>0.125</v>
       </c>
       <c r="G13" s="19">
         <f>'Hinterhölzl Stefan'!$F13*24</f>
-        <v>3.4999999999999996</v>
+        <v>3</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -6167,24 +6224,24 @@
         <v>43927</v>
       </c>
       <c r="B14" s="10">
-        <v>0.70833333333333337</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="C14" s="10">
-        <v>0.83333333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="10">
         <f>'Hinterhölzl Stefan'!$C14-'Hinterhölzl Stefan'!$B14</f>
-        <v>0.125</v>
+        <v>0.14583333333333331</v>
       </c>
       <c r="G14" s="19">
         <f>'Hinterhölzl Stefan'!$F14*24</f>
-        <v>3</v>
+        <v>3.4999999999999996</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -6208,13 +6265,13 @@
         <v>43927</v>
       </c>
       <c r="B15" s="10">
-        <v>0.875</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="C15" s="10">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>14</v>
@@ -6246,27 +6303,27 @@
     </row>
     <row r="16" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
-        <v>43928</v>
+        <v>43927</v>
       </c>
       <c r="B16" s="10">
-        <v>0.375</v>
+        <v>0.875</v>
       </c>
       <c r="C16" s="10">
-        <v>0.51041666666666663</v>
+        <v>1</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="10">
         <f>'Hinterhölzl Stefan'!$C16-'Hinterhölzl Stefan'!$B16</f>
-        <v>0.13541666666666663</v>
+        <v>0.125</v>
       </c>
       <c r="G16" s="19">
         <f>'Hinterhölzl Stefan'!$F16*24</f>
-        <v>3.2499999999999991</v>
+        <v>3</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -6290,24 +6347,24 @@
         <v>43928</v>
       </c>
       <c r="B17" s="10">
-        <v>0.64583333333333337</v>
+        <v>0.375</v>
       </c>
       <c r="C17" s="10">
-        <v>0.70833333333333337</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F17" s="10">
         <f>'Hinterhölzl Stefan'!$C17-'Hinterhölzl Stefan'!$B17</f>
-        <v>6.25E-2</v>
+        <v>0.13541666666666663</v>
       </c>
       <c r="G17" s="19">
         <f>'Hinterhölzl Stefan'!$F17*24</f>
-        <v>1.5</v>
+        <v>3.2499999999999991</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -6328,27 +6385,27 @@
     </row>
     <row r="18" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
-        <v>43929</v>
+        <v>43928</v>
       </c>
       <c r="B18" s="10">
-        <v>0.375</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="C18" s="10">
-        <v>0.51041666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="10">
         <f>'Hinterhölzl Stefan'!$C18-'Hinterhölzl Stefan'!$B18</f>
-        <v>0.13541666666666663</v>
+        <v>6.25E-2</v>
       </c>
       <c r="G18" s="19">
         <f>'Hinterhölzl Stefan'!$F18*24</f>
-        <v>3.2499999999999991</v>
+        <v>1.5</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -6372,10 +6429,10 @@
         <v>43929</v>
       </c>
       <c r="B19" s="10">
-        <v>0.66666666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="C19" s="10">
-        <v>0.85416666666666663</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>47</v>
@@ -6385,11 +6442,11 @@
       </c>
       <c r="F19" s="10">
         <f>'Hinterhölzl Stefan'!$C19-'Hinterhölzl Stefan'!$B19</f>
-        <v>0.1875</v>
+        <v>0.13541666666666663</v>
       </c>
       <c r="G19" s="19">
         <f>'Hinterhölzl Stefan'!$F19*24</f>
-        <v>4.5</v>
+        <v>3.2499999999999991</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -6410,27 +6467,27 @@
     </row>
     <row r="20" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
-        <v>43930</v>
+        <v>43929</v>
       </c>
       <c r="B20" s="10">
-        <v>0.39583333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C20" s="10">
-        <v>0.47916666666666669</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F20" s="10">
         <f>'Hinterhölzl Stefan'!$C20-'Hinterhölzl Stefan'!$B20</f>
-        <v>8.333333333333337E-2</v>
+        <v>0.1875</v>
       </c>
       <c r="G20" s="19">
         <f>'Hinterhölzl Stefan'!$F20*24</f>
-        <v>2.0000000000000009</v>
+        <v>4.5</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -6451,27 +6508,27 @@
     </row>
     <row r="21" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
-        <v>43934</v>
+        <v>43930</v>
       </c>
       <c r="B21" s="10">
-        <v>0.70833333333333337</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="C21" s="10">
-        <v>0.89583333333333337</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F21" s="10">
         <f>'Hinterhölzl Stefan'!$C21-'Hinterhölzl Stefan'!$B21</f>
-        <v>0.1875</v>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="G21" s="19">
         <f>'Hinterhölzl Stefan'!$F21*24</f>
-        <v>4.5</v>
+        <v>2.0000000000000009</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
@@ -6492,27 +6549,27 @@
     </row>
     <row r="22" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
-        <v>43935</v>
+        <v>43934</v>
       </c>
       <c r="B22" s="10">
-        <v>0.45833333333333331</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="C22" s="10">
-        <v>0.625</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F22" s="10">
         <f>'Hinterhölzl Stefan'!$C22-'Hinterhölzl Stefan'!$B22</f>
-        <v>0.16666666666666669</v>
+        <v>0.1875</v>
       </c>
       <c r="G22" s="19">
         <f>'Hinterhölzl Stefan'!$F22*24</f>
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -6536,10 +6593,10 @@
         <v>43935</v>
       </c>
       <c r="B23" s="10">
-        <v>0.70833333333333337</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="C23" s="10">
-        <v>0.83333333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>51</v>
@@ -6549,11 +6606,11 @@
       </c>
       <c r="F23" s="10">
         <f>'Hinterhölzl Stefan'!$C23-'Hinterhölzl Stefan'!$B23</f>
-        <v>0.125</v>
+        <v>0.16666666666666669</v>
       </c>
       <c r="G23" s="19">
         <f>'Hinterhölzl Stefan'!$F23*24</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -6573,18 +6630,28 @@
       <c r="W23" s="8"/>
     </row>
     <row r="24" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+      <c r="A24" s="9">
+        <v>43935</v>
+      </c>
+      <c r="B24" s="10">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C24" s="10">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F24" s="10">
         <f>'Hinterhölzl Stefan'!$C24-'Hinterhölzl Stefan'!$B24</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="G24" s="19">
         <f>'Hinterhölzl Stefan'!$F24*24</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>

--- a/administratives/2020S_CE KT_Zeitaufzeichnung_Gruppe9.xlsx
+++ b/administratives/2020S_CE KT_Zeitaufzeichnung_Gruppe9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\Dropbox\Uni\Uni\SS 2020\CE KT\VS Anwendung\CEKT-Web\administratives\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3860FDEF-9276-42CC-8B65-DB4FE396BDCE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57CD7B9E-E9C0-4948-94BE-E8A2685A311E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3150" windowWidth="28800" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="3150" windowWidth="28800" windowHeight="15555" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
@@ -865,7 +865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -952,19 +952,19 @@
       </c>
       <c r="B6" s="7">
         <f>SUMIF('Deutsch Thomas'!$E$5:$E$27,Übersicht!$A6,'Deutsch Thomas'!$G$5:$G$27)</f>
-        <v>35.750000000000007</v>
+        <v>36.750000000000007</v>
       </c>
       <c r="C6" s="7">
         <f>SUMIF('Bolda Stefan'!$E$5:$E$27,Übersicht!$A6,'Bolda Stefan'!$G$5:$G$27)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="7">
         <f>SUMIF('Hinterhölzl Stefan'!$E$5:$E$31,Übersicht!$A6,'Hinterhölzl Stefan'!$G$5:$G$31)</f>
-        <v>51.25</v>
+        <v>52.25</v>
       </c>
       <c r="E6" s="7">
         <f>SUM(Übersicht!$B6:$D6)</f>
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1036,19 +1036,19 @@
       </c>
       <c r="B10" s="12">
         <f t="shared" ref="B10:D10" si="0">SUM(B4:B9)</f>
-        <v>45.250000000000014</v>
+        <v>46.250000000000014</v>
       </c>
       <c r="C10" s="12">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="12">
         <f t="shared" si="0"/>
-        <v>59.25</v>
+        <v>60.25</v>
       </c>
       <c r="E10" s="12">
         <f>SUM(Übersicht!$B10:$D10)</f>
-        <v>130.5</v>
+        <v>133.5</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2055,7 +2055,7 @@
   <dimension ref="A1:W996"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2082,7 +2082,7 @@
       </c>
       <c r="E1" s="5">
         <f>SUM('Deutsch Thomas'!$G$5:$G$27)</f>
-        <v>45.25</v>
+        <v>46.25</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2337,7 +2337,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="C10" s="22">
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>52</v>
@@ -2347,11 +2347,11 @@
       </c>
       <c r="F10" s="10">
         <f>'Deutsch Thomas'!$C10-'Deutsch Thomas'!$B10</f>
-        <v>0.16666666666666674</v>
+        <v>0.20833333333333337</v>
       </c>
       <c r="G10" s="19">
         <f>'Deutsch Thomas'!$F10*24</f>
-        <v>4.0000000000000018</v>
+        <v>5.0000000000000009</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -3948,7 +3948,7 @@
   <dimension ref="A1:W996"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3975,7 +3975,7 @@
       </c>
       <c r="E1" s="5">
         <f>SUM('Bolda Stefan'!$G$5:$G$27)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4116,7 +4116,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C7" s="10">
-        <v>0.625</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>52</v>
@@ -4126,11 +4126,11 @@
       </c>
       <c r="F7" s="10">
         <f>'Bolda Stefan'!$C7-'Bolda Stefan'!$B7</f>
-        <v>0.16666666666666669</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="G7" s="19">
         <f>'Bolda Stefan'!$F7*24</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -5780,8 +5780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W996"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5808,7 +5808,7 @@
       </c>
       <c r="E1" s="5">
         <f>SUM('Hinterhölzl Stefan'!$G$5:$G$27)</f>
-        <v>59.25</v>
+        <v>60.25</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6145,7 +6145,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="C12" s="22">
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>52</v>
@@ -6155,11 +6155,11 @@
       </c>
       <c r="F12" s="10">
         <f>'Hinterhölzl Stefan'!$C12-'Hinterhölzl Stefan'!$B12</f>
-        <v>0.16666666666666674</v>
+        <v>0.20833333333333337</v>
       </c>
       <c r="G12" s="19">
         <f>'Hinterhölzl Stefan'!$F12*24</f>
-        <v>4.0000000000000018</v>
+        <v>5.0000000000000009</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>

--- a/administratives/2020S_CE KT_Zeitaufzeichnung_Gruppe9.xlsx
+++ b/administratives/2020S_CE KT_Zeitaufzeichnung_Gruppe9.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\Dropbox\Uni\Uni\SS 2020\CE KT\VS Anwendung\CEKT-Web\administratives\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Dropbox\AAA OwnShare\JKU-Linz\4. Sem\CE KT Web\CEKT-Web\administratives\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57CD7B9E-E9C0-4948-94BE-E8A2685A311E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B71D10C-27EB-47E0-AE27-FF4776435AEC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3150" windowWidth="28800" windowHeight="15555" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="59">
   <si>
     <t>Name:</t>
   </si>
@@ -200,6 +200,18 @@
   <si>
     <t>Projektfortschritt besprechen, routing frontend</t>
   </si>
+  <si>
+    <t>Fronend, CSS, Server</t>
+  </si>
+  <si>
+    <t>Präsenztermin 1. Einheit</t>
+  </si>
+  <si>
+    <t>CSS Styling</t>
+  </si>
+  <si>
+    <t>Präsentation Meilenstein 1</t>
+  </si>
 </sst>
 </file>
 
@@ -208,7 +220,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,6 +278,11 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -287,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -315,6 +332,8 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -349,7 +368,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="hh:mm"/>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
     </dxf>
     <dxf>
       <font>
@@ -367,7 +386,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="hh:mm"/>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
     </dxf>
     <dxf>
       <font>
@@ -398,7 +417,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="hh:mm"/>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
     </dxf>
     <dxf>
       <font>
@@ -416,7 +435,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="hh:mm"/>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
     </dxf>
     <dxf>
       <font>
@@ -447,7 +466,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="hh:mm"/>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
     </dxf>
     <dxf>
       <font>
@@ -465,7 +484,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="hh:mm"/>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
     </dxf>
     <dxf>
       <fill>
@@ -611,7 +630,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_3" displayName="Table_3" ref="A4:G27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_3" displayName="Table_3" ref="A4:G28">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Datum"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Start" dataDxfId="8"/>
@@ -636,7 +655,7 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Tätigkeit"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Meilenstein"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Zeit">
-      <calculatedColumnFormula>'Bolda Stefan'!$C5-'Bolda Stefan'!$B5</calculatedColumnFormula>
+      <calculatedColumnFormula>'Bolda Stefan'!$C6-'Bolda Stefan'!$B6</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Stunden" dataDxfId="3">
       <calculatedColumnFormula>'Bolda Stefan'!$F5*24</calculatedColumnFormula>
@@ -866,7 +885,7 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -908,13 +927,13 @@
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7">
-        <f>SUMIF('Deutsch Thomas'!$E$5:$E$27,Übersicht!$A4,'Deutsch Thomas'!$G$5:$G$27)</f>
-        <v>6.0000000000000018</v>
+      <c r="B4" s="23">
+        <f>SUMIF('Deutsch Thomas'!$E$5:$E$28,Übersicht!$A4,'Deutsch Thomas'!$G$5:$G$28)</f>
+        <v>9.25</v>
       </c>
       <c r="C4" s="7">
-        <f>SUMIF('Bolda Stefan'!$E$5:$E$27,Übersicht!$A4,'Bolda Stefan'!$G$5:$G$27)</f>
-        <v>5.0000000000000009</v>
+        <f>SUMIF('Bolda Stefan'!$E$6:$E$27,Übersicht!$A4,'Bolda Stefan'!$G$5:$G$27)</f>
+        <v>3.2499999999999991</v>
       </c>
       <c r="D4" s="7">
         <f>SUMIF('Hinterhölzl Stefan'!$E$5:$E$31,Übersicht!$A4,'Hinterhölzl Stefan'!$G$5:$G$31)</f>
@@ -922,20 +941,20 @@
       </c>
       <c r="E4" s="7">
         <f>SUM(Übersicht!$B4:$D4)</f>
-        <v>16.000000000000004</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="7">
-        <f>SUMIF('Deutsch Thomas'!$E$5:$E$27,Übersicht!$A5,'Deutsch Thomas'!$G$5:$G$27)</f>
+      <c r="B5" s="23">
+        <f>SUMIF('Deutsch Thomas'!$E$5:$E$28,Übersicht!$A5,'Deutsch Thomas'!$G$5:$G$28)</f>
         <v>3.5000000000000009</v>
       </c>
       <c r="C5" s="7">
-        <f>SUMIF('Bolda Stefan'!$E$5:$E$27,Übersicht!$A5,'Bolda Stefan'!$G$5:$G$27)</f>
-        <v>3</v>
+        <f>SUMIF('Bolda Stefan'!$E$6:$E$27,Übersicht!$A5,'Bolda Stefan'!$G$5:$G$27)</f>
+        <v>5.0000000000000009</v>
       </c>
       <c r="D5" s="7">
         <f>SUMIF('Hinterhölzl Stefan'!$E$5:$E$31,Übersicht!$A5,'Hinterhölzl Stefan'!$G$5:$G$31)</f>
@@ -943,7 +962,7 @@
       </c>
       <c r="E5" s="7">
         <f>SUM(Übersicht!$B5:$D5)</f>
-        <v>9.5</v>
+        <v>11.500000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -951,20 +970,20 @@
         <v>14</v>
       </c>
       <c r="B6" s="7">
-        <f>SUMIF('Deutsch Thomas'!$E$5:$E$27,Übersicht!$A6,'Deutsch Thomas'!$G$5:$G$27)</f>
-        <v>36.750000000000007</v>
+        <f>SUMIF('Deutsch Thomas'!$E$6:$E$28,Übersicht!$A6,'Deutsch Thomas'!$G$6:$G$28)</f>
+        <v>50.333333333333343</v>
       </c>
       <c r="C6" s="7">
-        <f>SUMIF('Bolda Stefan'!$E$5:$E$27,Übersicht!$A6,'Bolda Stefan'!$G$5:$G$27)</f>
-        <v>19</v>
+        <f>SUMIF('Bolda Stefan'!$E$6:$E$27,Übersicht!$A6,'Bolda Stefan'!$G$5:$G$27)</f>
+        <v>22</v>
       </c>
       <c r="D6" s="7">
         <f>SUMIF('Hinterhölzl Stefan'!$E$5:$E$31,Übersicht!$A6,'Hinterhölzl Stefan'!$G$5:$G$31)</f>
-        <v>52.25</v>
+        <v>55.833333333333336</v>
       </c>
       <c r="E6" s="7">
         <f>SUM(Übersicht!$B6:$D6)</f>
-        <v>108</v>
+        <v>128.16666666666669</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -972,11 +991,11 @@
         <v>15</v>
       </c>
       <c r="B7" s="7">
-        <f>SUMIF('Deutsch Thomas'!$E$5:$E$27,Übersicht!$A7,'Deutsch Thomas'!$G$5:$G$27)</f>
+        <f>SUMIF('Deutsch Thomas'!$E$6:$E$28,Übersicht!$A7,'Deutsch Thomas'!$G$6:$G$28)</f>
         <v>0</v>
       </c>
       <c r="C7" s="7">
-        <f>SUMIF('Bolda Stefan'!$E$5:$E$27,Übersicht!$A7,'Bolda Stefan'!$G$5:$G$27)</f>
+        <f>SUMIF('Bolda Stefan'!$E$6:$E$27,Übersicht!$A7,'Bolda Stefan'!$G$5:$G$27)</f>
         <v>0</v>
       </c>
       <c r="D7" s="7">
@@ -992,12 +1011,12 @@
       <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="7">
-        <f>SUMIF('Deutsch Thomas'!$E$5:$E$27,Übersicht!$A8,'Deutsch Thomas'!$G$5:$G$27)</f>
+      <c r="B8" s="23">
+        <f>SUMIF('Deutsch Thomas'!$E$5:$E$28,Übersicht!$A8,'Deutsch Thomas'!$G$5:$G$28)</f>
         <v>0</v>
       </c>
       <c r="C8" s="7">
-        <f>SUMIF('Bolda Stefan'!$E$5:$E$27,Übersicht!$A8,'Bolda Stefan'!$G$5:$G$27)</f>
+        <f>SUMIF('Bolda Stefan'!$E$6:$E$27,Übersicht!$A8,'Bolda Stefan'!$G$5:$G$27)</f>
         <v>0</v>
       </c>
       <c r="D8" s="7">
@@ -1013,12 +1032,12 @@
       <c r="A9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="7">
-        <f>SUMIF('Deutsch Thomas'!$E$5:$E$27,Übersicht!$A9,'Deutsch Thomas'!$G$5:$G$27)</f>
+      <c r="B9" s="23">
+        <f>SUMIF('Deutsch Thomas'!$E$5:$E$28,Übersicht!$A9,'Deutsch Thomas'!$G$5:$G$28)</f>
         <v>0</v>
       </c>
       <c r="C9" s="7">
-        <f>SUMIF('Bolda Stefan'!$E$5:$E$27,Übersicht!$A9,'Bolda Stefan'!$G$5:$G$27)</f>
+        <f>SUMIF('Bolda Stefan'!$E$6:$E$27,Übersicht!$A9,'Bolda Stefan'!$G$5:$G$27)</f>
         <v>0</v>
       </c>
       <c r="D9" s="7">
@@ -1036,19 +1055,19 @@
       </c>
       <c r="B10" s="12">
         <f t="shared" ref="B10:D10" si="0">SUM(B4:B9)</f>
-        <v>46.250000000000014</v>
+        <v>63.083333333333343</v>
       </c>
       <c r="C10" s="12">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>30.25</v>
       </c>
       <c r="D10" s="12">
         <f t="shared" si="0"/>
-        <v>60.25</v>
+        <v>63.833333333333336</v>
       </c>
       <c r="E10" s="12">
         <f>SUM(Übersicht!$B10:$D10)</f>
-        <v>133.5</v>
+        <v>157.16666666666669</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2052,10 +2071,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W996"/>
+  <dimension ref="A1:W997"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2066,7 +2085,7 @@
     <col min="4" max="4" width="64.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.625" customWidth="1"/>
     <col min="6" max="6" width="8.875" customWidth="1"/>
-    <col min="7" max="7" width="8.875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" customWidth="1"/>
     <col min="8" max="25" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2080,9 +2099,9 @@
       <c r="D1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5">
-        <f>SUM('Deutsch Thomas'!$G$5:$G$27)</f>
-        <v>46.25</v>
+      <c r="E1" s="23">
+        <f>SUM('Deutsch Thomas'!$G$5:$G$28)</f>
+        <v>63.083333333333336</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2135,27 +2154,27 @@
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
-        <v>43901</v>
+        <v>43899</v>
       </c>
       <c r="B5" s="10">
-        <v>0.34375</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="C5" s="10">
-        <v>0.55208333333333337</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="10">
         <f>'Deutsch Thomas'!$C5-'Deutsch Thomas'!$B5</f>
-        <v>0.20833333333333337</v>
+        <v>0.13541666666666663</v>
       </c>
       <c r="G5" s="19">
         <f>'Deutsch Thomas'!$F5*24</f>
-        <v>5.0000000000000009</v>
+        <v>3.2499999999999991</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -2176,27 +2195,27 @@
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
-        <v>43907</v>
+        <v>43901</v>
       </c>
       <c r="B6" s="10">
-        <v>0.66666666666666663</v>
+        <v>0.34375</v>
       </c>
       <c r="C6" s="10">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>28</v>
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F6" s="10">
         <f>'Deutsch Thomas'!$C6-'Deutsch Thomas'!$B6</f>
-        <v>0.125</v>
+        <v>0.20833333333333337</v>
       </c>
       <c r="G6" s="19">
         <f>'Deutsch Thomas'!$F6*24</f>
-        <v>3</v>
+        <v>5.0000000000000009</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
@@ -2217,27 +2236,27 @@
     </row>
     <row r="7" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
-        <v>43913</v>
+        <v>43907</v>
       </c>
       <c r="B7" s="10">
-        <v>0.375</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C7" s="10">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>29</v>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>28</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F7" s="10">
         <f>'Deutsch Thomas'!$C7-'Deutsch Thomas'!$B7</f>
-        <v>4.1666666666666685E-2</v>
+        <v>0.125</v>
       </c>
       <c r="G7" s="19">
         <f>'Deutsch Thomas'!$F7*24</f>
-        <v>1.0000000000000004</v>
+        <v>3</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -2258,59 +2277,2023 @@
     </row>
     <row r="8" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
-        <v>43919</v>
+        <v>43913</v>
       </c>
       <c r="B8" s="10">
-        <v>0.66666666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="C8" s="10">
-        <v>0.6875</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F8" s="10">
         <f>'Deutsch Thomas'!$C8-'Deutsch Thomas'!$B8</f>
-        <v>2.083333333333337E-2</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="G8" s="19">
         <f>'Deutsch Thomas'!$F8*24</f>
+        <v>1.0000000000000004</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+    </row>
+    <row r="9" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>43919</v>
+      </c>
+      <c r="B9" s="10">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.6875</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="10">
+        <f>'Deutsch Thomas'!$C9-'Deutsch Thomas'!$B9</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="G9" s="19">
+        <f>'Deutsch Thomas'!$F9*24</f>
         <v>0.50000000000000089</v>
       </c>
-      <c r="Q8" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="3"/>
+    </row>
+    <row r="10" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>43924</v>
+      </c>
+      <c r="B10" s="10">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="10">
+        <f>'Deutsch Thomas'!$C10-'Deutsch Thomas'!$B10</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="G10" s="19">
+        <f>'Deutsch Thomas'!$F10*24</f>
+        <v>2.0000000000000009</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+    </row>
+    <row r="11" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>43925</v>
+      </c>
+      <c r="B11" s="22">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C11" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="10">
+        <f>'Deutsch Thomas'!$C11-'Deutsch Thomas'!$B11</f>
+        <v>0.20833333333333337</v>
+      </c>
+      <c r="G11" s="19">
+        <f>'Deutsch Thomas'!$F11*24</f>
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+    </row>
+    <row r="12" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>43926</v>
+      </c>
+      <c r="B12" s="10">
+        <v>0.625</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="10">
+        <f>'Deutsch Thomas'!$C12-'Deutsch Thomas'!$B12</f>
+        <v>0.125</v>
+      </c>
+      <c r="G12" s="19">
+        <f>'Deutsch Thomas'!$F12*24</f>
+        <v>3</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+    </row>
+    <row r="13" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>43927</v>
+      </c>
+      <c r="B13" s="10">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="10">
+        <f>'Deutsch Thomas'!$C13-'Deutsch Thomas'!$B13</f>
+        <v>0.15625000000000006</v>
+      </c>
+      <c r="G13" s="19">
+        <f>'Deutsch Thomas'!$F13*24</f>
+        <v>3.7500000000000013</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+    </row>
+    <row r="14" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>43927</v>
+      </c>
+      <c r="B14" s="10">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C14" s="10">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="10">
+        <f>'Deutsch Thomas'!$C14-'Deutsch Thomas'!$B14</f>
+        <v>0.125</v>
+      </c>
+      <c r="G14" s="19">
+        <f>'Deutsch Thomas'!$F14*24</f>
+        <v>3</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+    </row>
+    <row r="15" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>43928</v>
+      </c>
+      <c r="B15" s="10">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C15" s="10">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="10">
+        <f>'Deutsch Thomas'!$C15-'Deutsch Thomas'!$B15</f>
+        <v>0.12499999999999994</v>
+      </c>
+      <c r="G15" s="19">
+        <f>'Deutsch Thomas'!$F15*24</f>
+        <v>2.9999999999999987</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+    </row>
+    <row r="16" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>43929</v>
+      </c>
+      <c r="B16" s="10">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C16" s="10">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="10">
+        <f>'Deutsch Thomas'!$C16-'Deutsch Thomas'!$B16</f>
+        <v>0.37500000000000006</v>
+      </c>
+      <c r="G16" s="19">
+        <f>'Deutsch Thomas'!$F16*24</f>
+        <v>9.0000000000000018</v>
+      </c>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>43934</v>
+      </c>
+      <c r="B17" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="C17" s="10">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="10">
+        <f>'Deutsch Thomas'!$C17-'Deutsch Thomas'!$B17</f>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="G17" s="19">
+        <f>'Deutsch Thomas'!$F17*24</f>
+        <v>8</v>
+      </c>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+    </row>
+    <row r="18" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>43935</v>
+      </c>
+      <c r="B18" s="10">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C18" s="10">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="10">
+        <f>'Deutsch Thomas'!$C18-'Deutsch Thomas'!$B18</f>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G18" s="19">
+        <f>'Deutsch Thomas'!$F18*24</f>
+        <v>11</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+    </row>
+    <row r="19" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>43940</v>
+      </c>
+      <c r="B19" s="10">
+        <v>0.625</v>
+      </c>
+      <c r="C19" s="10">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="10">
+        <f>'Deutsch Thomas'!$C19-'Deutsch Thomas'!$B19</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="G19" s="19">
+        <f>'Deutsch Thomas'!$F19*24</f>
+        <v>2.0000000000000009</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+    </row>
+    <row r="20" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>43941</v>
+      </c>
+      <c r="B20" s="10">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="C20" s="10">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="10">
+        <f>'Deutsch Thomas'!$C20-'Deutsch Thomas'!$B20</f>
+        <v>2.430555555555558E-2</v>
+      </c>
+      <c r="G20" s="19">
+        <f>'Deutsch Thomas'!$F20*24</f>
+        <v>0.58333333333333393</v>
+      </c>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+    </row>
+    <row r="21" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="10">
+        <f>'Deutsch Thomas'!$C21-'Deutsch Thomas'!$B21</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="19">
+        <f>'Deutsch Thomas'!$F21*24</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+    </row>
+    <row r="22" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="10">
+        <f>'Deutsch Thomas'!$C22-'Deutsch Thomas'!$B22</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="19">
+        <f>'Deutsch Thomas'!$F22*24</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+    </row>
+    <row r="23" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="10">
+        <f>'Deutsch Thomas'!$C23-'Deutsch Thomas'!$B23</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="19">
+        <f>'Deutsch Thomas'!$F23*24</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+    </row>
+    <row r="24" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="10">
+        <f>'Deutsch Thomas'!$C24-'Deutsch Thomas'!$B24</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="19">
+        <f>'Deutsch Thomas'!$F24*24</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+    </row>
+    <row r="25" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="10">
+        <f>'Deutsch Thomas'!$C25-'Deutsch Thomas'!$B25</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="19">
+        <f>'Deutsch Thomas'!$F25*24</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+    </row>
+    <row r="26" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="10">
+        <f>'Deutsch Thomas'!$C26-'Deutsch Thomas'!$B26</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="19">
+        <f>'Deutsch Thomas'!$F26*24</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+    </row>
+    <row r="27" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="16"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="10">
+        <f>'Deutsch Thomas'!$C27-'Deutsch Thomas'!$B27</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="19">
+        <f>'Deutsch Thomas'!$F27*24</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+    </row>
+    <row r="28" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="16"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="10">
+        <f>'Deutsch Thomas'!$C28-'Deutsch Thomas'!$B28</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="19">
+        <f>'Deutsch Thomas'!$F28*24</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+    </row>
+    <row r="29" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Q9 W9 L14 S14 L16 S16" xr:uid="{00000000-0002-0000-0100-000000000000}">
+      <formula1>"Projektidee,Lernvertrag,Meilenstein 1,Meilenstein 2,Meilenstein 3,Messeunterlagen"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E5:E28" xr:uid="{00000000-0002-0000-0100-000001000000}">
+      <formula1>"Projektidee,Lernvertrag,Meilenstein 1,Meilenstein 2,Meilenstein 3,Endabgabe"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:W996"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col min="3" max="3" width="8.875" customWidth="1"/>
+    <col min="4" max="4" width="64.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.625" customWidth="1"/>
+    <col min="6" max="6" width="8.875" customWidth="1"/>
+    <col min="7" max="7" width="8.875" hidden="1" customWidth="1"/>
+    <col min="8" max="25" width="8.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5">
+        <f>SUM('Bolda Stefan'!$G$5:$G$27)</f>
+        <v>30.833333333333336</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+    </row>
+    <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>43899</v>
+      </c>
+      <c r="B5" s="10">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="10">
+        <f>'Bolda Stefan'!$C5-'Bolda Stefan'!$B5</f>
+        <v>0.13541666666666663</v>
+      </c>
+      <c r="G5" s="19">
+        <f>'Bolda Stefan'!$F5*24</f>
+        <v>3.2499999999999991</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+    </row>
+    <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>43901</v>
+      </c>
+      <c r="B6" s="24">
+        <v>0.34375</v>
+      </c>
+      <c r="C6" s="24">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="10">
+        <f>'Bolda Stefan'!$C6-'Bolda Stefan'!$B6</f>
+        <v>0.20833333333333337</v>
+      </c>
+      <c r="G6" s="19">
+        <f>'Bolda Stefan'!$F6*24</f>
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+    </row>
+    <row r="7" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>43907</v>
+      </c>
+      <c r="B7" s="24">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C7" s="24">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="10">
+        <f>'Bolda Stefan'!$C7-'Bolda Stefan'!$B7</f>
+        <v>0.125</v>
+      </c>
+      <c r="G7" s="19">
+        <f>'Bolda Stefan'!$F7*24</f>
+        <v>3</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+    </row>
+    <row r="8" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>43925</v>
+      </c>
+      <c r="B8" s="24">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C8" s="24">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="10">
+        <f>'Bolda Stefan'!$C8-'Bolda Stefan'!$B8</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="G8" s="19">
+        <f>'Bolda Stefan'!$F8*24</f>
+        <v>5</v>
+      </c>
+      <c r="Q8" s="6"/>
       <c r="R8" s="13"/>
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
       <c r="U8" s="8"/>
       <c r="V8" s="8"/>
-      <c r="W8" s="3"/>
+      <c r="W8" s="6"/>
     </row>
     <row r="9" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
-        <v>43924</v>
-      </c>
-      <c r="B9" s="10">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C9" s="10">
-        <v>0.75</v>
+        <v>43927</v>
+      </c>
+      <c r="B9" s="24">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C9" s="24">
+        <v>0.83333333333333337</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="10">
-        <f>'Deutsch Thomas'!$C9-'Deutsch Thomas'!$B9</f>
-        <v>8.333333333333337E-2</v>
+        <f>'Bolda Stefan'!$C9-'Bolda Stefan'!$B9</f>
+        <v>0.125</v>
       </c>
       <c r="G9" s="19">
-        <f>'Deutsch Thomas'!$F9*24</f>
-        <v>2.0000000000000009</v>
+        <f>'Bolda Stefan'!$F9*24</f>
+        <v>3</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="8"/>
@@ -2331,27 +4314,27 @@
     </row>
     <row r="10" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
-        <v>43925</v>
-      </c>
-      <c r="B10" s="22">
+        <v>43928</v>
+      </c>
+      <c r="B10" s="24">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C10" s="24">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C10" s="22">
-        <v>0.75</v>
-      </c>
       <c r="D10" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="10">
-        <f>'Deutsch Thomas'!$C10-'Deutsch Thomas'!$B10</f>
-        <v>0.20833333333333337</v>
+        <f>'Bolda Stefan'!$C10-'Bolda Stefan'!$B10</f>
+        <v>0.12499999999999994</v>
       </c>
       <c r="G10" s="19">
-        <f>'Deutsch Thomas'!$F10*24</f>
-        <v>5.0000000000000009</v>
+        <f>'Bolda Stefan'!$F10*24</f>
+        <v>2.9999999999999987</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -2372,27 +4355,27 @@
     </row>
     <row r="11" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
-        <v>43926</v>
-      </c>
-      <c r="B11" s="10">
-        <v>0.625</v>
-      </c>
-      <c r="C11" s="10">
-        <v>0.75</v>
+        <v>43935</v>
+      </c>
+      <c r="B11" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="C11" s="24">
+        <v>0.83333333333333337</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F11" s="10">
-        <f>'Deutsch Thomas'!$C11-'Deutsch Thomas'!$B11</f>
-        <v>0.125</v>
+        <f>'Bolda Stefan'!$C11-'Bolda Stefan'!$B11</f>
+        <v>0.33333333333333337</v>
       </c>
       <c r="G11" s="19">
-        <f>'Deutsch Thomas'!$F11*24</f>
-        <v>3</v>
+        <f>'Bolda Stefan'!$F11*24</f>
+        <v>8</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -2413,27 +4396,27 @@
     </row>
     <row r="12" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
-        <v>43927</v>
+        <v>43941</v>
       </c>
       <c r="B12" s="10">
-        <v>0.39583333333333331</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="C12" s="10">
-        <v>0.55208333333333337</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="10">
-        <f>'Deutsch Thomas'!$C12-'Deutsch Thomas'!$B12</f>
-        <v>0.15625000000000006</v>
+        <f>'Bolda Stefan'!$C12-'Bolda Stefan'!$B12</f>
+        <v>2.430555555555558E-2</v>
       </c>
       <c r="G12" s="19">
-        <f>'Deutsch Thomas'!$F12*24</f>
-        <v>3.7500000000000013</v>
+        <f>'Bolda Stefan'!$F12*24</f>
+        <v>0.58333333333333393</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -2453,69 +4436,49 @@
       <c r="W12" s="8"/>
     </row>
     <row r="13" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
-        <v>43927</v>
-      </c>
-      <c r="B13" s="10">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="C13" s="10">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
       <c r="F13" s="10">
-        <f>'Deutsch Thomas'!$C13-'Deutsch Thomas'!$B13</f>
-        <v>0.125</v>
+        <f>'Bolda Stefan'!$C13-'Bolda Stefan'!$B13</f>
+        <v>0</v>
       </c>
       <c r="G13" s="19">
-        <f>'Deutsch Thomas'!$F13*24</f>
-        <v>3</v>
+        <f>'Bolda Stefan'!$F13*24</f>
+        <v>0</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
-      <c r="L13" s="3"/>
+      <c r="L13" s="6"/>
       <c r="M13" s="15"/>
       <c r="N13" s="13"/>
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
-      <c r="S13" s="3"/>
+      <c r="S13" s="6"/>
       <c r="T13" s="15"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
     </row>
     <row r="14" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
-        <v>43928</v>
-      </c>
-      <c r="B14" s="10">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C14" s="10">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
       <c r="F14" s="10">
-        <f>'Deutsch Thomas'!$C14-'Deutsch Thomas'!$B14</f>
-        <v>0.12499999999999994</v>
+        <f>'Bolda Stefan'!$C14-'Bolda Stefan'!$B14</f>
+        <v>0</v>
       </c>
       <c r="G14" s="19">
-        <f>'Deutsch Thomas'!$F14*24</f>
-        <v>2.9999999999999987</v>
+        <f>'Bolda Stefan'!$F14*24</f>
+        <v>0</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -2535,69 +4498,49 @@
       <c r="W14" s="8"/>
     </row>
     <row r="15" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
-        <v>43929</v>
-      </c>
-      <c r="B15" s="10">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="C15" s="10">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="A15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
       <c r="F15" s="10">
-        <f>'Deutsch Thomas'!$C15-'Deutsch Thomas'!$B15</f>
-        <v>0.37500000000000006</v>
+        <f>'Bolda Stefan'!$C15-'Bolda Stefan'!$B15</f>
+        <v>0</v>
       </c>
       <c r="G15" s="19">
-        <f>'Deutsch Thomas'!$F15*24</f>
-        <v>9.0000000000000018</v>
+        <f>'Bolda Stefan'!$F15*24</f>
+        <v>0</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
-      <c r="L15" s="3"/>
+      <c r="L15" s="6"/>
       <c r="M15" s="15"/>
       <c r="N15" s="13"/>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
-      <c r="S15" s="3"/>
+      <c r="S15" s="6"/>
       <c r="T15" s="15"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
     </row>
     <row r="16" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
-        <v>43934</v>
-      </c>
-      <c r="B16" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="C16" s="10">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
       <c r="F16" s="10">
-        <f>'Deutsch Thomas'!$C16-'Deutsch Thomas'!$B16</f>
-        <v>0.33333333333333337</v>
+        <f>'Bolda Stefan'!$C16-'Bolda Stefan'!$B16</f>
+        <v>0</v>
       </c>
       <c r="G16" s="19">
-        <f>'Deutsch Thomas'!$F16*24</f>
-        <v>8</v>
+        <f>'Bolda Stefan'!$F16*24</f>
+        <v>0</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -2623,29 +4566,29 @@
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="10">
-        <f>'Deutsch Thomas'!$C17-'Deutsch Thomas'!$B17</f>
+        <f>'Bolda Stefan'!$C17-'Bolda Stefan'!$B17</f>
         <v>0</v>
       </c>
       <c r="G17" s="19">
-        <f>'Deutsch Thomas'!$F17*24</f>
+        <f>'Bolda Stefan'!$F17*24</f>
         <v>0</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
     </row>
     <row r="18" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
@@ -2654,11 +4597,11 @@
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="10">
-        <f>'Deutsch Thomas'!$C18-'Deutsch Thomas'!$B18</f>
+        <f>'Bolda Stefan'!$C18-'Bolda Stefan'!$B18</f>
         <v>0</v>
       </c>
       <c r="G18" s="19">
-        <f>'Deutsch Thomas'!$F18*24</f>
+        <f>'Bolda Stefan'!$F18*24</f>
         <v>0</v>
       </c>
       <c r="H18" s="8"/>
@@ -2685,11 +4628,11 @@
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="10">
-        <f>'Deutsch Thomas'!$C19-'Deutsch Thomas'!$B19</f>
+        <f>'Bolda Stefan'!$C19-'Bolda Stefan'!$B19</f>
         <v>0</v>
       </c>
       <c r="G19" s="19">
-        <f>'Deutsch Thomas'!$F19*24</f>
+        <f>'Bolda Stefan'!$F19*24</f>
         <v>0</v>
       </c>
       <c r="H19" s="8"/>
@@ -2716,11 +4659,11 @@
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="10">
-        <f>'Deutsch Thomas'!$C20-'Deutsch Thomas'!$B20</f>
+        <f>'Bolda Stefan'!$C20-'Bolda Stefan'!$B20</f>
         <v>0</v>
       </c>
       <c r="G20" s="19">
-        <f>'Deutsch Thomas'!$F20*24</f>
+        <f>'Bolda Stefan'!$F20*24</f>
         <v>0</v>
       </c>
       <c r="H20" s="8"/>
@@ -2747,11 +4690,11 @@
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="10">
-        <f>'Deutsch Thomas'!$C21-'Deutsch Thomas'!$B21</f>
+        <f>'Bolda Stefan'!$C21-'Bolda Stefan'!$B21</f>
         <v>0</v>
       </c>
       <c r="G21" s="19">
-        <f>'Deutsch Thomas'!$F21*24</f>
+        <f>'Bolda Stefan'!$F21*24</f>
         <v>0</v>
       </c>
       <c r="H21" s="8"/>
@@ -2778,11 +4721,11 @@
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="10">
-        <f>'Deutsch Thomas'!$C22-'Deutsch Thomas'!$B22</f>
+        <f>'Bolda Stefan'!$C22-'Bolda Stefan'!$B22</f>
         <v>0</v>
       </c>
       <c r="G22" s="19">
-        <f>'Deutsch Thomas'!$F22*24</f>
+        <f>'Bolda Stefan'!$F22*24</f>
         <v>0</v>
       </c>
       <c r="H22" s="8"/>
@@ -2809,11 +4752,11 @@
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="10">
-        <f>'Deutsch Thomas'!$C23-'Deutsch Thomas'!$B23</f>
+        <f>'Bolda Stefan'!$C23-'Bolda Stefan'!$B23</f>
         <v>0</v>
       </c>
       <c r="G23" s="19">
-        <f>'Deutsch Thomas'!$F23*24</f>
+        <f>'Bolda Stefan'!$F23*24</f>
         <v>0</v>
       </c>
       <c r="H23" s="8"/>
@@ -2840,11 +4783,11 @@
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="10">
-        <f>'Deutsch Thomas'!$C24-'Deutsch Thomas'!$B24</f>
+        <f>'Bolda Stefan'!$C24-'Bolda Stefan'!$B24</f>
         <v>0</v>
       </c>
       <c r="G24" s="19">
-        <f>'Deutsch Thomas'!$F24*24</f>
+        <f>'Bolda Stefan'!$F24*24</f>
         <v>0</v>
       </c>
       <c r="H24" s="8"/>
@@ -2871,11 +4814,11 @@
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="10">
-        <f>'Deutsch Thomas'!$C25-'Deutsch Thomas'!$B25</f>
+        <f>'Bolda Stefan'!$C25-'Bolda Stefan'!$B25</f>
         <v>0</v>
       </c>
       <c r="G25" s="19">
-        <f>'Deutsch Thomas'!$F25*24</f>
+        <f>'Bolda Stefan'!$F25*24</f>
         <v>0</v>
       </c>
       <c r="H25" s="8"/>
@@ -2902,11 +4845,11 @@
       <c r="D26" s="17"/>
       <c r="E26" s="6"/>
       <c r="F26" s="10">
-        <f>'Deutsch Thomas'!$C26-'Deutsch Thomas'!$B26</f>
+        <f>'Bolda Stefan'!$C26-'Bolda Stefan'!$B26</f>
         <v>0</v>
       </c>
       <c r="G26" s="19">
-        <f>'Deutsch Thomas'!$F26*24</f>
+        <f>'Bolda Stefan'!$F26*24</f>
         <v>0</v>
       </c>
       <c r="H26" s="8"/>
@@ -2933,11 +4876,11 @@
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
       <c r="F27" s="10">
-        <f>'Deutsch Thomas'!$C27-'Deutsch Thomas'!$B27</f>
+        <f>'Bolda Stefan'!$C27-'Bolda Stefan'!$B27</f>
         <v>0</v>
       </c>
       <c r="G27" s="19">
-        <f>'Deutsch Thomas'!$F27*24</f>
+        <f>'Bolda Stefan'!$F27*24</f>
         <v>0</v>
       </c>
       <c r="H27" s="8"/>
@@ -3928,10 +5871,10 @@
     <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Q8 W8 L13 S13 L15 S15" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Q8 W8 L13 S13 L15 S15" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Projektidee,Lernvertrag,Meilenstein 1,Meilenstein 2,Meilenstein 3,Messeunterlagen"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E5:E27" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E5:E27" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Projektidee,Lernvertrag,Meilenstein 1,Meilenstein 2,Meilenstein 3,Endabgabe"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3943,12 +5886,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W996"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3959,7 +5902,7 @@
     <col min="4" max="4" width="64.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.625" customWidth="1"/>
     <col min="6" max="6" width="8.875" customWidth="1"/>
-    <col min="7" max="7" width="8.875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="17.875" customWidth="1"/>
     <col min="8" max="25" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3968,14 +5911,14 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="5">
-        <f>SUM('Bolda Stefan'!$G$5:$G$27)</f>
-        <v>27</v>
+        <f>SUM('Hinterhölzl Stefan'!$G$5:$G$27)</f>
+        <v>63.833333333333336</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3983,7 +5926,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4043,11 +5986,11 @@
         <v>5</v>
       </c>
       <c r="F5" s="10">
-        <f>'Bolda Stefan'!$C5-'Bolda Stefan'!$B5</f>
+        <f>'Hinterhölzl Stefan'!$C5-'Hinterhölzl Stefan'!$B5</f>
         <v>0.20833333333333337</v>
       </c>
       <c r="G5" s="19">
-        <f>'Bolda Stefan'!$F5*24</f>
+        <f>'Hinterhölzl Stefan'!$F5*24</f>
         <v>5.0000000000000009</v>
       </c>
       <c r="H5" s="8"/>
@@ -4084,11 +6027,11 @@
         <v>13</v>
       </c>
       <c r="F6" s="10">
-        <f>'Bolda Stefan'!$C6-'Bolda Stefan'!$B6</f>
+        <f>'Hinterhölzl Stefan'!$C6-'Hinterhölzl Stefan'!$B6</f>
         <v>0.125</v>
       </c>
       <c r="G6" s="19">
-        <f>'Bolda Stefan'!$F6*24</f>
+        <f>'Hinterhölzl Stefan'!$F6*24</f>
         <v>3</v>
       </c>
       <c r="H6" s="8"/>
@@ -4110,27 +6053,27 @@
     </row>
     <row r="7" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
-        <v>43925</v>
+        <v>43915</v>
       </c>
       <c r="B7" s="10">
-        <v>0.45833333333333331</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="C7" s="10">
-        <v>0.66666666666666663</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="10">
-        <f>'Bolda Stefan'!$C7-'Bolda Stefan'!$B7</f>
-        <v>0.20833333333333331</v>
+        <f>'Hinterhölzl Stefan'!$C7-'Hinterhölzl Stefan'!$B7</f>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="G7" s="19">
-        <f>'Bolda Stefan'!$F7*24</f>
-        <v>5</v>
+        <f>'Hinterhölzl Stefan'!$F7*24</f>
+        <v>1.0000000000000018</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -4151,27 +6094,27 @@
     </row>
     <row r="8" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
-        <v>43927</v>
+        <v>43916</v>
       </c>
       <c r="B8" s="10">
-        <v>0.70833333333333337</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="C8" s="10">
-        <v>0.83333333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="10">
-        <f>'Bolda Stefan'!$C8-'Bolda Stefan'!$B8</f>
-        <v>0.125</v>
+        <f>'Hinterhölzl Stefan'!$C8-'Hinterhölzl Stefan'!$B8</f>
+        <v>6.2499999999999944E-2</v>
       </c>
       <c r="G8" s="19">
-        <f>'Bolda Stefan'!$F8*24</f>
-        <v>3</v>
+        <f>'Hinterhölzl Stefan'!$F8*24</f>
+        <v>1.4999999999999987</v>
       </c>
       <c r="Q8" s="6"/>
       <c r="R8" s="13"/>
@@ -4183,27 +6126,27 @@
     </row>
     <row r="9" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
-        <v>43928</v>
+        <v>43916</v>
       </c>
       <c r="B9" s="10">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C9" s="10">
-        <v>0.54166666666666663</v>
+        <v>0.8125</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="10">
-        <f>'Bolda Stefan'!$C9-'Bolda Stefan'!$B9</f>
-        <v>0.12499999999999994</v>
+        <f>'Hinterhölzl Stefan'!$C9-'Hinterhölzl Stefan'!$B9</f>
+        <v>0.14583333333333337</v>
       </c>
       <c r="G9" s="19">
-        <f>'Bolda Stefan'!$F9*24</f>
-        <v>2.9999999999999987</v>
+        <f>'Hinterhölzl Stefan'!$F9*24</f>
+        <v>3.5000000000000009</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="8"/>
@@ -4224,27 +6167,27 @@
     </row>
     <row r="10" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
-        <v>43935</v>
+        <v>43916</v>
       </c>
       <c r="B10" s="10">
-        <v>0.5</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="C10" s="10">
-        <v>0.83333333333333337</v>
+        <v>0.92708333333333337</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="10">
-        <f>'Bolda Stefan'!$C10-'Bolda Stefan'!$B10</f>
-        <v>0.33333333333333337</v>
+        <f>'Hinterhölzl Stefan'!$C10-'Hinterhölzl Stefan'!$B10</f>
+        <v>3.125E-2</v>
       </c>
       <c r="G10" s="19">
-        <f>'Bolda Stefan'!$F10*24</f>
-        <v>8</v>
+        <f>'Hinterhölzl Stefan'!$F10*24</f>
+        <v>0.75</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -4264,18 +6207,28 @@
       <c r="W10" s="8"/>
     </row>
     <row r="11" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="A11" s="9">
+        <v>43924</v>
+      </c>
+      <c r="B11" s="10">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F11" s="10">
-        <f>'Bolda Stefan'!$C11-'Bolda Stefan'!$B11</f>
-        <v>0</v>
+        <f>'Hinterhölzl Stefan'!$C11-'Hinterhölzl Stefan'!$B11</f>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="G11" s="19">
-        <f>'Bolda Stefan'!$F11*24</f>
-        <v>0</v>
+        <f>'Hinterhölzl Stefan'!$F11*24</f>
+        <v>2.0000000000000009</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -4295,18 +6248,28 @@
       <c r="W11" s="8"/>
     </row>
     <row r="12" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="A12" s="9">
+        <v>43925</v>
+      </c>
+      <c r="B12" s="22">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C12" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F12" s="10">
-        <f>'Bolda Stefan'!$C12-'Bolda Stefan'!$B12</f>
-        <v>0</v>
+        <f>'Hinterhölzl Stefan'!$C12-'Hinterhölzl Stefan'!$B12</f>
+        <v>0.20833333333333337</v>
       </c>
       <c r="G12" s="19">
-        <f>'Bolda Stefan'!$F12*24</f>
-        <v>0</v>
+        <f>'Hinterhölzl Stefan'!$F12*24</f>
+        <v>5.0000000000000009</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -4326,18 +6289,28 @@
       <c r="W12" s="8"/>
     </row>
     <row r="13" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="A13" s="9">
+        <v>43926</v>
+      </c>
+      <c r="B13" s="10">
+        <v>0.625</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F13" s="10">
-        <f>'Bolda Stefan'!$C13-'Bolda Stefan'!$B13</f>
-        <v>0</v>
+        <f>'Hinterhölzl Stefan'!$C13-'Hinterhölzl Stefan'!$B13</f>
+        <v>0.125</v>
       </c>
       <c r="G13" s="19">
-        <f>'Bolda Stefan'!$F13*24</f>
-        <v>0</v>
+        <f>'Hinterhölzl Stefan'!$F13*24</f>
+        <v>3</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -4357,18 +6330,28 @@
       <c r="W13" s="6"/>
     </row>
     <row r="14" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="A14" s="9">
+        <v>43927</v>
+      </c>
+      <c r="B14" s="10">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C14" s="10">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F14" s="10">
-        <f>'Bolda Stefan'!$C14-'Bolda Stefan'!$B14</f>
-        <v>0</v>
+        <f>'Hinterhölzl Stefan'!$C14-'Hinterhölzl Stefan'!$B14</f>
+        <v>0.14583333333333331</v>
       </c>
       <c r="G14" s="19">
-        <f>'Bolda Stefan'!$F14*24</f>
-        <v>0</v>
+        <f>'Hinterhölzl Stefan'!$F14*24</f>
+        <v>3.4999999999999996</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -4388,18 +6371,28 @@
       <c r="W14" s="8"/>
     </row>
     <row r="15" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="A15" s="9">
+        <v>43927</v>
+      </c>
+      <c r="B15" s="10">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C15" s="10">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F15" s="10">
-        <f>'Bolda Stefan'!$C15-'Bolda Stefan'!$B15</f>
-        <v>0</v>
+        <f>'Hinterhölzl Stefan'!$C15-'Hinterhölzl Stefan'!$B15</f>
+        <v>0.125</v>
       </c>
       <c r="G15" s="19">
-        <f>'Bolda Stefan'!$F15*24</f>
-        <v>0</v>
+        <f>'Hinterhölzl Stefan'!$F15*24</f>
+        <v>3</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -4419,18 +6412,28 @@
       <c r="W15" s="6"/>
     </row>
     <row r="16" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="A16" s="9">
+        <v>43927</v>
+      </c>
+      <c r="B16" s="10">
+        <v>0.875</v>
+      </c>
+      <c r="C16" s="10">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F16" s="10">
-        <f>'Bolda Stefan'!$C16-'Bolda Stefan'!$B16</f>
-        <v>0</v>
+        <f>'Hinterhölzl Stefan'!$C16-'Hinterhölzl Stefan'!$B16</f>
+        <v>0.125</v>
       </c>
       <c r="G16" s="19">
-        <f>'Bolda Stefan'!$F16*24</f>
-        <v>0</v>
+        <f>'Hinterhölzl Stefan'!$F16*24</f>
+        <v>3</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -4450,18 +6453,28 @@
       <c r="W16" s="8"/>
     </row>
     <row r="17" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
+      <c r="A17" s="9">
+        <v>43928</v>
+      </c>
+      <c r="B17" s="10">
+        <v>0.375</v>
+      </c>
+      <c r="C17" s="10">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F17" s="10">
-        <f>'Bolda Stefan'!$C17-'Bolda Stefan'!$B17</f>
-        <v>0</v>
+        <f>'Hinterhölzl Stefan'!$C17-'Hinterhölzl Stefan'!$B17</f>
+        <v>0.13541666666666663</v>
       </c>
       <c r="G17" s="19">
-        <f>'Bolda Stefan'!$F17*24</f>
-        <v>0</v>
+        <f>'Hinterhölzl Stefan'!$F17*24</f>
+        <v>3.2499999999999991</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -4481,18 +6494,28 @@
       <c r="W17" s="6"/>
     </row>
     <row r="18" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+      <c r="A18" s="9">
+        <v>43928</v>
+      </c>
+      <c r="B18" s="10">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C18" s="10">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F18" s="10">
-        <f>'Bolda Stefan'!$C18-'Bolda Stefan'!$B18</f>
-        <v>0</v>
+        <f>'Hinterhölzl Stefan'!$C18-'Hinterhölzl Stefan'!$B18</f>
+        <v>6.25E-2</v>
       </c>
       <c r="G18" s="19">
-        <f>'Bolda Stefan'!$F18*24</f>
-        <v>0</v>
+        <f>'Hinterhölzl Stefan'!$F18*24</f>
+        <v>1.5</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -4512,18 +6535,28 @@
       <c r="W18" s="8"/>
     </row>
     <row r="19" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+      <c r="A19" s="9">
+        <v>43929</v>
+      </c>
+      <c r="B19" s="10">
+        <v>0.375</v>
+      </c>
+      <c r="C19" s="10">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F19" s="10">
-        <f>'Bolda Stefan'!$C19-'Bolda Stefan'!$B19</f>
-        <v>0</v>
+        <f>'Hinterhölzl Stefan'!$C19-'Hinterhölzl Stefan'!$B19</f>
+        <v>0.13541666666666663</v>
       </c>
       <c r="G19" s="19">
-        <f>'Bolda Stefan'!$F19*24</f>
-        <v>0</v>
+        <f>'Hinterhölzl Stefan'!$F19*24</f>
+        <v>3.2499999999999991</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -4543,18 +6576,28 @@
       <c r="W19" s="8"/>
     </row>
     <row r="20" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+      <c r="A20" s="9">
+        <v>43929</v>
+      </c>
+      <c r="B20" s="10">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C20" s="10">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F20" s="10">
-        <f>'Bolda Stefan'!$C20-'Bolda Stefan'!$B20</f>
-        <v>0</v>
+        <f>'Hinterhölzl Stefan'!$C20-'Hinterhölzl Stefan'!$B20</f>
+        <v>0.1875</v>
       </c>
       <c r="G20" s="19">
-        <f>'Bolda Stefan'!$F20*24</f>
-        <v>0</v>
+        <f>'Hinterhölzl Stefan'!$F20*24</f>
+        <v>4.5</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -4574,18 +6617,28 @@
       <c r="W20" s="8"/>
     </row>
     <row r="21" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
+      <c r="A21" s="9">
+        <v>43930</v>
+      </c>
+      <c r="B21" s="10">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C21" s="10">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F21" s="10">
-        <f>'Bolda Stefan'!$C21-'Bolda Stefan'!$B21</f>
-        <v>0</v>
+        <f>'Hinterhölzl Stefan'!$C21-'Hinterhölzl Stefan'!$B21</f>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="G21" s="19">
-        <f>'Bolda Stefan'!$F21*24</f>
-        <v>0</v>
+        <f>'Hinterhölzl Stefan'!$F21*24</f>
+        <v>2.0000000000000009</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
@@ -4605,18 +6658,28 @@
       <c r="W21" s="8"/>
     </row>
     <row r="22" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+      <c r="A22" s="9">
+        <v>43934</v>
+      </c>
+      <c r="B22" s="10">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C22" s="10">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F22" s="10">
-        <f>'Bolda Stefan'!$C22-'Bolda Stefan'!$B22</f>
-        <v>0</v>
+        <f>'Hinterhölzl Stefan'!$C22-'Hinterhölzl Stefan'!$B22</f>
+        <v>0.1875</v>
       </c>
       <c r="G22" s="19">
-        <f>'Bolda Stefan'!$F22*24</f>
-        <v>0</v>
+        <f>'Hinterhölzl Stefan'!$F22*24</f>
+        <v>4.5</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -4636,18 +6699,28 @@
       <c r="W22" s="8"/>
     </row>
     <row r="23" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
+      <c r="A23" s="9">
+        <v>43935</v>
+      </c>
+      <c r="B23" s="10">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C23" s="10">
+        <v>0.625</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F23" s="10">
-        <f>'Bolda Stefan'!$C23-'Bolda Stefan'!$B23</f>
-        <v>0</v>
+        <f>'Hinterhölzl Stefan'!$C23-'Hinterhölzl Stefan'!$B23</f>
+        <v>0.29166666666666669</v>
       </c>
       <c r="G23" s="19">
-        <f>'Bolda Stefan'!$F23*24</f>
-        <v>0</v>
+        <f>'Hinterhölzl Stefan'!$F23*24</f>
+        <v>7</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -4667,18 +6740,28 @@
       <c r="W23" s="8"/>
     </row>
     <row r="24" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+      <c r="A24" s="9">
+        <v>43935</v>
+      </c>
+      <c r="B24" s="10">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C24" s="10">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F24" s="10">
-        <f>'Bolda Stefan'!$C24-'Bolda Stefan'!$B24</f>
-        <v>0</v>
+        <f>'Hinterhölzl Stefan'!$C24-'Hinterhölzl Stefan'!$B24</f>
+        <v>0.125</v>
       </c>
       <c r="G24" s="19">
-        <f>'Bolda Stefan'!$F24*24</f>
-        <v>0</v>
+        <f>'Hinterhölzl Stefan'!$F24*24</f>
+        <v>3</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -4698,1991 +6781,28 @@
       <c r="W24" s="8"/>
     </row>
     <row r="25" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="10">
-        <f>'Bolda Stefan'!$C25-'Bolda Stefan'!$B25</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="19">
-        <f>'Bolda Stefan'!$F25*24</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="8"/>
-    </row>
-    <row r="26" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="10">
-        <f>'Bolda Stefan'!$C26-'Bolda Stefan'!$B26</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="19">
-        <f>'Bolda Stefan'!$F26*24</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="8"/>
-    </row>
-    <row r="27" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="10">
-        <f>'Bolda Stefan'!$C27-'Bolda Stefan'!$B27</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="19">
-        <f>'Bolda Stefan'!$F27*24</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="8"/>
-    </row>
-    <row r="28" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E5:E27" xr:uid="{00000000-0002-0000-0200-000000000000}">
-      <formula1>"Projektidee,Lernvertrag,Meilenstein 1,Meilenstein 2,Meilenstein 3,Endabgabe"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Q8 W8 L13 S13 L15 S15" xr:uid="{00000000-0002-0000-0200-000001000000}">
-      <formula1>"Projektidee,Lernvertrag,Meilenstein 1,Meilenstein 2,Meilenstein 3,Messeunterlagen"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:W996"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.375" customWidth="1"/>
-    <col min="3" max="3" width="8.875" customWidth="1"/>
-    <col min="4" max="4" width="64.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.625" customWidth="1"/>
-    <col min="6" max="6" width="8.875" customWidth="1"/>
-    <col min="7" max="7" width="8.875" hidden="1" customWidth="1"/>
-    <col min="8" max="25" width="8.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="5">
-        <f>SUM('Hinterhölzl Stefan'!$G$5:$G$27)</f>
-        <v>60.25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-    </row>
-    <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>43901</v>
-      </c>
-      <c r="B5" s="10">
-        <v>0.34375</v>
-      </c>
-      <c r="C5" s="10">
-        <v>0.55208333333333337</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="10">
-        <f>'Hinterhölzl Stefan'!$C5-'Hinterhölzl Stefan'!$B5</f>
-        <v>0.20833333333333337</v>
-      </c>
-      <c r="G5" s="19">
-        <f>'Hinterhölzl Stefan'!$F5*24</f>
-        <v>5.0000000000000009</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-    </row>
-    <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>43907</v>
-      </c>
-      <c r="B6" s="10">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C6" s="10">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="10">
-        <f>'Hinterhölzl Stefan'!$C6-'Hinterhölzl Stefan'!$B6</f>
-        <v>0.125</v>
-      </c>
-      <c r="G6" s="19">
-        <f>'Hinterhölzl Stefan'!$F6*24</f>
-        <v>3</v>
-      </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-    </row>
-    <row r="7" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>43915</v>
-      </c>
-      <c r="B7" s="10">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="C7" s="10">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="A25" s="9">
+        <v>43941</v>
+      </c>
+      <c r="B25" s="10">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="C25" s="10">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="10">
-        <f>'Hinterhölzl Stefan'!$C7-'Hinterhölzl Stefan'!$B7</f>
-        <v>4.1666666666666741E-2</v>
-      </c>
-      <c r="G7" s="19">
-        <f>'Hinterhölzl Stefan'!$F7*24</f>
-        <v>1.0000000000000018</v>
-      </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-    </row>
-    <row r="8" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>43916</v>
-      </c>
-      <c r="B8" s="10">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="C8" s="10">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="10">
-        <f>'Hinterhölzl Stefan'!$C8-'Hinterhölzl Stefan'!$B8</f>
-        <v>6.2499999999999944E-2</v>
-      </c>
-      <c r="G8" s="19">
-        <f>'Hinterhölzl Stefan'!$F8*24</f>
-        <v>1.4999999999999987</v>
-      </c>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="6"/>
-    </row>
-    <row r="9" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
-        <v>43916</v>
-      </c>
-      <c r="B9" s="10">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C9" s="10">
-        <v>0.8125</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="10">
-        <f>'Hinterhölzl Stefan'!$C9-'Hinterhölzl Stefan'!$B9</f>
-        <v>0.14583333333333337</v>
-      </c>
-      <c r="G9" s="19">
-        <f>'Hinterhölzl Stefan'!$F9*24</f>
-        <v>3.5000000000000009</v>
-      </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-    </row>
-    <row r="10" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
-        <v>43916</v>
-      </c>
-      <c r="B10" s="10">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="C10" s="10">
-        <v>0.92708333333333337</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="10">
-        <f>'Hinterhölzl Stefan'!$C10-'Hinterhölzl Stefan'!$B10</f>
-        <v>3.125E-2</v>
-      </c>
-      <c r="G10" s="19">
-        <f>'Hinterhölzl Stefan'!$F10*24</f>
-        <v>0.75</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-    </row>
-    <row r="11" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
-        <v>43924</v>
-      </c>
-      <c r="B11" s="10">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C11" s="10">
-        <v>0.75</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="10">
-        <f>'Hinterhölzl Stefan'!$C11-'Hinterhölzl Stefan'!$B11</f>
-        <v>8.333333333333337E-2</v>
-      </c>
-      <c r="G11" s="19">
-        <f>'Hinterhölzl Stefan'!$F11*24</f>
-        <v>2.0000000000000009</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-    </row>
-    <row r="12" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <v>43925</v>
-      </c>
-      <c r="B12" s="22">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="C12" s="22">
-        <v>0.75</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="10">
-        <f>'Hinterhölzl Stefan'!$C12-'Hinterhölzl Stefan'!$B12</f>
-        <v>0.20833333333333337</v>
-      </c>
-      <c r="G12" s="19">
-        <f>'Hinterhölzl Stefan'!$F12*24</f>
-        <v>5.0000000000000009</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-    </row>
-    <row r="13" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
-        <v>43926</v>
-      </c>
-      <c r="B13" s="10">
-        <v>0.625</v>
-      </c>
-      <c r="C13" s="10">
-        <v>0.75</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="10">
-        <f>'Hinterhölzl Stefan'!$C13-'Hinterhölzl Stefan'!$B13</f>
-        <v>0.125</v>
-      </c>
-      <c r="G13" s="19">
-        <f>'Hinterhölzl Stefan'!$F13*24</f>
-        <v>3</v>
-      </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-    </row>
-    <row r="14" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
-        <v>43927</v>
-      </c>
-      <c r="B14" s="10">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="C14" s="10">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="10">
-        <f>'Hinterhölzl Stefan'!$C14-'Hinterhölzl Stefan'!$B14</f>
-        <v>0.14583333333333331</v>
-      </c>
-      <c r="G14" s="19">
-        <f>'Hinterhölzl Stefan'!$F14*24</f>
-        <v>3.4999999999999996</v>
-      </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-    </row>
-    <row r="15" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
-        <v>43927</v>
-      </c>
-      <c r="B15" s="10">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="C15" s="10">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="10">
-        <f>'Hinterhölzl Stefan'!$C15-'Hinterhölzl Stefan'!$B15</f>
-        <v>0.125</v>
-      </c>
-      <c r="G15" s="19">
-        <f>'Hinterhölzl Stefan'!$F15*24</f>
-        <v>3</v>
-      </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-    </row>
-    <row r="16" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
-        <v>43927</v>
-      </c>
-      <c r="B16" s="10">
-        <v>0.875</v>
-      </c>
-      <c r="C16" s="10">
-        <v>1</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="10">
-        <f>'Hinterhölzl Stefan'!$C16-'Hinterhölzl Stefan'!$B16</f>
-        <v>0.125</v>
-      </c>
-      <c r="G16" s="19">
-        <f>'Hinterhölzl Stefan'!$F16*24</f>
-        <v>3</v>
-      </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-    </row>
-    <row r="17" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
-        <v>43928</v>
-      </c>
-      <c r="B17" s="10">
-        <v>0.375</v>
-      </c>
-      <c r="C17" s="10">
-        <v>0.51041666666666663</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="10">
-        <f>'Hinterhölzl Stefan'!$C17-'Hinterhölzl Stefan'!$B17</f>
-        <v>0.13541666666666663</v>
-      </c>
-      <c r="G17" s="19">
-        <f>'Hinterhölzl Stefan'!$F17*24</f>
-        <v>3.2499999999999991</v>
-      </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-    </row>
-    <row r="18" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
-        <v>43928</v>
-      </c>
-      <c r="B18" s="10">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="C18" s="10">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="10">
-        <f>'Hinterhölzl Stefan'!$C18-'Hinterhölzl Stefan'!$B18</f>
-        <v>6.25E-2</v>
-      </c>
-      <c r="G18" s="19">
-        <f>'Hinterhölzl Stefan'!$F18*24</f>
-        <v>1.5</v>
-      </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
-    </row>
-    <row r="19" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
-        <v>43929</v>
-      </c>
-      <c r="B19" s="10">
-        <v>0.375</v>
-      </c>
-      <c r="C19" s="10">
-        <v>0.51041666666666663</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="10">
-        <f>'Hinterhölzl Stefan'!$C19-'Hinterhölzl Stefan'!$B19</f>
-        <v>0.13541666666666663</v>
-      </c>
-      <c r="G19" s="19">
-        <f>'Hinterhölzl Stefan'!$F19*24</f>
-        <v>3.2499999999999991</v>
-      </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-    </row>
-    <row r="20" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
-        <v>43929</v>
-      </c>
-      <c r="B20" s="10">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C20" s="10">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="10">
-        <f>'Hinterhölzl Stefan'!$C20-'Hinterhölzl Stefan'!$B20</f>
-        <v>0.1875</v>
-      </c>
-      <c r="G20" s="19">
-        <f>'Hinterhölzl Stefan'!$F20*24</f>
-        <v>4.5</v>
-      </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="8"/>
-    </row>
-    <row r="21" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
-        <v>43930</v>
-      </c>
-      <c r="B21" s="10">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="C21" s="10">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="10">
-        <f>'Hinterhölzl Stefan'!$C21-'Hinterhölzl Stefan'!$B21</f>
-        <v>8.333333333333337E-2</v>
-      </c>
-      <c r="G21" s="19">
-        <f>'Hinterhölzl Stefan'!$F21*24</f>
-        <v>2.0000000000000009</v>
-      </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-    </row>
-    <row r="22" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
-        <v>43934</v>
-      </c>
-      <c r="B22" s="10">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="C22" s="10">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="10">
-        <f>'Hinterhölzl Stefan'!$C22-'Hinterhölzl Stefan'!$B22</f>
-        <v>0.1875</v>
-      </c>
-      <c r="G22" s="19">
-        <f>'Hinterhölzl Stefan'!$F22*24</f>
-        <v>4.5</v>
-      </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="8"/>
-    </row>
-    <row r="23" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
-        <v>43935</v>
-      </c>
-      <c r="B23" s="10">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="C23" s="10">
-        <v>0.625</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="10">
-        <f>'Hinterhölzl Stefan'!$C23-'Hinterhölzl Stefan'!$B23</f>
-        <v>0.16666666666666669</v>
-      </c>
-      <c r="G23" s="19">
-        <f>'Hinterhölzl Stefan'!$F23*24</f>
-        <v>4</v>
-      </c>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
-    </row>
-    <row r="24" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
-        <v>43935</v>
-      </c>
-      <c r="B24" s="10">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="C24" s="10">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="10">
-        <f>'Hinterhölzl Stefan'!$C24-'Hinterhölzl Stefan'!$B24</f>
-        <v>0.125</v>
-      </c>
-      <c r="G24" s="19">
-        <f>'Hinterhölzl Stefan'!$F24*24</f>
-        <v>3</v>
-      </c>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
-    </row>
-    <row r="25" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
       <c r="F25" s="10">
         <f>'Hinterhölzl Stefan'!$C25-'Hinterhölzl Stefan'!$B25</f>
-        <v>0</v>
+        <v>2.430555555555558E-2</v>
       </c>
       <c r="G25" s="19">
         <f>'Hinterhölzl Stefan'!$F25*24</f>
-        <v>0</v>
+        <v>0.58333333333333393</v>
       </c>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>

--- a/administratives/2020S_CE KT_Zeitaufzeichnung_Gruppe9.xlsx
+++ b/administratives/2020S_CE KT_Zeitaufzeichnung_Gruppe9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Dropbox\AAA OwnShare\JKU-Linz\4. Sem\CE KT Web\CEKT-Web\administratives\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B71D10C-27EB-47E0-AE27-FF4776435AEC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53CF00E-1367-410C-9B41-0B871E51BA96}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="60">
   <si>
     <t>Name:</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>Präsentation Meilenstein 1</t>
+  </si>
+  <si>
+    <t>Userpage/adminpage unterscheidung - error handling</t>
   </si>
 </sst>
 </file>
@@ -992,19 +995,19 @@
       </c>
       <c r="B7" s="7">
         <f>SUMIF('Deutsch Thomas'!$E$6:$E$28,Übersicht!$A7,'Deutsch Thomas'!$G$6:$G$28)</f>
-        <v>0</v>
+        <v>2.0000000000000009</v>
       </c>
       <c r="C7" s="7">
         <f>SUMIF('Bolda Stefan'!$E$6:$E$27,Übersicht!$A7,'Bolda Stefan'!$G$5:$G$27)</f>
-        <v>0</v>
+        <v>0.58333333333333393</v>
       </c>
       <c r="D7" s="7">
         <f>SUMIF('Hinterhölzl Stefan'!$E$5:$E$31,Übersicht!$A7,'Hinterhölzl Stefan'!$G$5:$G$31)</f>
-        <v>0</v>
+        <v>2.0000000000000009</v>
       </c>
       <c r="E7" s="7">
         <f>SUM(Übersicht!$B7:$D7)</f>
-        <v>0</v>
+        <v>4.5833333333333357</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1055,19 +1058,19 @@
       </c>
       <c r="B10" s="12">
         <f t="shared" ref="B10:D10" si="0">SUM(B4:B9)</f>
-        <v>63.083333333333343</v>
+        <v>65.083333333333343</v>
       </c>
       <c r="C10" s="12">
         <f t="shared" si="0"/>
-        <v>30.25</v>
+        <v>30.833333333333336</v>
       </c>
       <c r="D10" s="12">
         <f t="shared" si="0"/>
-        <v>63.833333333333336</v>
+        <v>65.833333333333343</v>
       </c>
       <c r="E10" s="12">
         <f>SUM(Übersicht!$B10:$D10)</f>
-        <v>157.16666666666669</v>
+        <v>161.75000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2073,8 +2076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W997"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2101,7 +2104,7 @@
       </c>
       <c r="E1" s="23">
         <f>SUM('Deutsch Thomas'!$G$5:$G$28)</f>
-        <v>63.083333333333336</v>
+        <v>65.083333333333343</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2800,18 +2803,28 @@
       <c r="W20" s="8"/>
     </row>
     <row r="21" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
+      <c r="A21" s="16">
+        <v>43941</v>
+      </c>
+      <c r="B21" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="C21" s="10">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="F21" s="10">
         <f>'Deutsch Thomas'!$C21-'Deutsch Thomas'!$B21</f>
-        <v>0</v>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="G21" s="19">
         <f>'Deutsch Thomas'!$F21*24</f>
-        <v>0</v>
+        <v>2.0000000000000009</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
@@ -4038,7 +4051,7 @@
   <dimension ref="A1:W996"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="A13" sqref="A13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4065,7 +4078,7 @@
       </c>
       <c r="E1" s="5">
         <f>SUM('Bolda Stefan'!$G$5:$G$27)</f>
-        <v>30.833333333333336</v>
+        <v>32.833333333333336</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4436,18 +4449,28 @@
       <c r="W12" s="8"/>
     </row>
     <row r="13" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="A13" s="16">
+        <v>43941</v>
+      </c>
+      <c r="B13" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="F13" s="10">
         <f>'Bolda Stefan'!$C13-'Bolda Stefan'!$B13</f>
-        <v>0</v>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="G13" s="19">
         <f>'Bolda Stefan'!$F13*24</f>
-        <v>0</v>
+        <v>2.0000000000000009</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -5890,8 +5913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W996"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5918,7 +5941,7 @@
       </c>
       <c r="E1" s="5">
         <f>SUM('Hinterhölzl Stefan'!$G$5:$G$27)</f>
-        <v>63.833333333333336</v>
+        <v>65.833333333333343</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6822,18 +6845,28 @@
       <c r="W25" s="8"/>
     </row>
     <row r="26" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="6"/>
+      <c r="A26" s="16">
+        <v>43941</v>
+      </c>
+      <c r="B26" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="C26" s="10">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="F26" s="10">
         <f>'Hinterhölzl Stefan'!$C26-'Hinterhölzl Stefan'!$B26</f>
-        <v>0</v>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="G26" s="19">
         <f>'Hinterhölzl Stefan'!$F26*24</f>
-        <v>0</v>
+        <v>2.0000000000000009</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>

--- a/administratives/2020S_CE KT_Zeitaufzeichnung_Gruppe9.xlsx
+++ b/administratives/2020S_CE KT_Zeitaufzeichnung_Gruppe9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Dropbox\AAA OwnShare\JKU-Linz\4. Sem\CE KT Web\CEKT-Web\administratives\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53CF00E-1367-410C-9B41-0B871E51BA96}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55542EC6-3212-49CE-9B5D-B10F06CD6B99}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="61">
   <si>
     <t>Name:</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>Userpage/adminpage unterscheidung - error handling</t>
+  </si>
+  <si>
+    <t>Redesign user login - lods of error handling</t>
   </si>
 </sst>
 </file>
@@ -887,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -995,19 +998,19 @@
       </c>
       <c r="B7" s="7">
         <f>SUMIF('Deutsch Thomas'!$E$6:$E$28,Übersicht!$A7,'Deutsch Thomas'!$G$6:$G$28)</f>
-        <v>2.0000000000000009</v>
+        <v>8</v>
       </c>
       <c r="C7" s="7">
         <f>SUMIF('Bolda Stefan'!$E$6:$E$27,Übersicht!$A7,'Bolda Stefan'!$G$5:$G$27)</f>
-        <v>0.58333333333333393</v>
+        <v>2.5833333333333348</v>
       </c>
       <c r="D7" s="7">
         <f>SUMIF('Hinterhölzl Stefan'!$E$5:$E$31,Übersicht!$A7,'Hinterhölzl Stefan'!$G$5:$G$31)</f>
-        <v>2.0000000000000009</v>
+        <v>8</v>
       </c>
       <c r="E7" s="7">
         <f>SUM(Übersicht!$B7:$D7)</f>
-        <v>4.5833333333333357</v>
+        <v>18.583333333333336</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1058,19 +1061,19 @@
       </c>
       <c r="B10" s="12">
         <f t="shared" ref="B10:D10" si="0">SUM(B4:B9)</f>
-        <v>65.083333333333343</v>
+        <v>71.083333333333343</v>
       </c>
       <c r="C10" s="12">
         <f t="shared" si="0"/>
-        <v>30.833333333333336</v>
+        <v>32.833333333333336</v>
       </c>
       <c r="D10" s="12">
         <f t="shared" si="0"/>
-        <v>65.833333333333343</v>
+        <v>71.833333333333343</v>
       </c>
       <c r="E10" s="12">
         <f>SUM(Übersicht!$B10:$D10)</f>
-        <v>161.75000000000003</v>
+        <v>175.75000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2076,8 +2079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W997"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2104,7 +2107,7 @@
       </c>
       <c r="E1" s="23">
         <f>SUM('Deutsch Thomas'!$G$5:$G$28)</f>
-        <v>65.083333333333343</v>
+        <v>71.083333333333343</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2844,18 +2847,28 @@
       <c r="W21" s="8"/>
     </row>
     <row r="22" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+      <c r="A22" s="9">
+        <v>43943</v>
+      </c>
+      <c r="B22" s="10">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C22" s="10">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="F22" s="10">
         <f>'Deutsch Thomas'!$C22-'Deutsch Thomas'!$B22</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G22" s="19">
         <f>'Deutsch Thomas'!$F22*24</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -4051,7 +4064,7 @@
   <dimension ref="A1:W996"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:E13"/>
+      <selection activeCell="A14" sqref="A14:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4078,7 +4091,7 @@
       </c>
       <c r="E1" s="5">
         <f>SUM('Bolda Stefan'!$G$5:$G$27)</f>
-        <v>32.833333333333336</v>
+        <v>38.833333333333336</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4490,18 +4503,28 @@
       <c r="W13" s="6"/>
     </row>
     <row r="14" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="A14" s="9">
+        <v>43943</v>
+      </c>
+      <c r="B14" s="10">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C14" s="10">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="F14" s="10">
         <f>'Bolda Stefan'!$C14-'Bolda Stefan'!$B14</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G14" s="19">
         <f>'Bolda Stefan'!$F14*24</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -5914,7 +5937,7 @@
   <dimension ref="A1:W996"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:E26"/>
+      <selection activeCell="A27" sqref="A27:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5941,7 +5964,7 @@
       </c>
       <c r="E1" s="5">
         <f>SUM('Hinterhölzl Stefan'!$G$5:$G$27)</f>
-        <v>65.833333333333343</v>
+        <v>71.833333333333343</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6886,18 +6909,28 @@
       <c r="W26" s="8"/>
     </row>
     <row r="27" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
+      <c r="A27" s="9">
+        <v>43943</v>
+      </c>
+      <c r="B27" s="10">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C27" s="10">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="F27" s="10">
         <f>'Hinterhölzl Stefan'!$C27-'Hinterhölzl Stefan'!$B27</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G27" s="19">
         <f>'Hinterhölzl Stefan'!$F27*24</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>

--- a/administratives/2020S_CE KT_Zeitaufzeichnung_Gruppe9.xlsx
+++ b/administratives/2020S_CE KT_Zeitaufzeichnung_Gruppe9.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Dropbox\AAA OwnShare\JKU-Linz\4. Sem\CE KT Web\CEKT-Web\administratives\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Desktop\CEKT-Web-master\administratives\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55542EC6-3212-49CE-9B5D-B10F06CD6B99}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4ECC9F5-3089-47C0-8AEF-DAF9C7D5794C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="63">
   <si>
     <t>Name:</t>
   </si>
@@ -217,6 +217,12 @@
   </si>
   <si>
     <t>Redesign user login - lods of error handling</t>
+  </si>
+  <si>
+    <t>Logodesign und Banner arbeiten (UI</t>
+  </si>
+  <si>
+    <t>Materialize Bootstrap einarbeitung, design UI</t>
   </si>
 </sst>
 </file>
@@ -891,7 +897,7 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -938,8 +944,8 @@
         <v>9.25</v>
       </c>
       <c r="C4" s="7">
-        <f>SUMIF('Bolda Stefan'!$E$6:$E$27,Übersicht!$A4,'Bolda Stefan'!$G$5:$G$27)</f>
-        <v>3.2499999999999991</v>
+        <f>SUMIF('Bolda Stefan'!$E$5:$E$27,Übersicht!$A4,'Bolda Stefan'!$G$5:$G$27)</f>
+        <v>8.25</v>
       </c>
       <c r="D4" s="7">
         <f>SUMIF('Hinterhölzl Stefan'!$E$5:$E$31,Übersicht!$A4,'Hinterhölzl Stefan'!$G$5:$G$31)</f>
@@ -947,7 +953,7 @@
       </c>
       <c r="E4" s="7">
         <f>SUM(Übersicht!$B4:$D4)</f>
-        <v>17.5</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1001,8 +1007,8 @@
         <v>8</v>
       </c>
       <c r="C7" s="7">
-        <f>SUMIF('Bolda Stefan'!$E$6:$E$27,Übersicht!$A7,'Bolda Stefan'!$G$5:$G$27)</f>
-        <v>2.5833333333333348</v>
+        <f>SUMIF('Bolda Stefan'!$E$5:$E$27,Übersicht!$A7,'Bolda Stefan'!$G$5:$G$27)</f>
+        <v>25</v>
       </c>
       <c r="D7" s="7">
         <f>SUMIF('Hinterhölzl Stefan'!$E$5:$E$31,Übersicht!$A7,'Hinterhölzl Stefan'!$G$5:$G$31)</f>
@@ -1010,7 +1016,7 @@
       </c>
       <c r="E7" s="7">
         <f>SUM(Übersicht!$B7:$D7)</f>
-        <v>18.583333333333336</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1065,7 +1071,7 @@
       </c>
       <c r="C10" s="12">
         <f t="shared" si="0"/>
-        <v>32.833333333333336</v>
+        <v>60.25</v>
       </c>
       <c r="D10" s="12">
         <f t="shared" si="0"/>
@@ -1073,7 +1079,7 @@
       </c>
       <c r="E10" s="12">
         <f>SUM(Übersicht!$B10:$D10)</f>
-        <v>175.75000000000003</v>
+        <v>203.16666666666669</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4064,7 +4070,7 @@
   <dimension ref="A1:W996"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:E14"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4075,7 +4081,7 @@
     <col min="4" max="4" width="64.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.625" customWidth="1"/>
     <col min="6" max="6" width="8.875" customWidth="1"/>
-    <col min="7" max="7" width="8.875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="20.875" customWidth="1"/>
     <col min="8" max="25" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4091,7 +4097,7 @@
       </c>
       <c r="E1" s="5">
         <f>SUM('Bolda Stefan'!$G$5:$G$27)</f>
-        <v>38.833333333333336</v>
+        <v>55.833333333333336</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4544,18 +4550,28 @@
       <c r="W14" s="8"/>
     </row>
     <row r="15" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="A15" s="9">
+        <v>43945</v>
+      </c>
+      <c r="B15" s="10">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C15" s="10">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="F15" s="10">
         <f>'Bolda Stefan'!$C15-'Bolda Stefan'!$B15</f>
-        <v>0</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="G15" s="19">
         <f>'Bolda Stefan'!$F15*24</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -4575,18 +4591,28 @@
       <c r="W15" s="6"/>
     </row>
     <row r="16" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="A16" s="9">
+        <v>43949</v>
+      </c>
+      <c r="B16" s="10">
+        <v>0.375</v>
+      </c>
+      <c r="C16" s="10">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="F16" s="10">
         <f>'Bolda Stefan'!$C16-'Bolda Stefan'!$B16</f>
-        <v>0</v>
+        <v>0.41666666666666663</v>
       </c>
       <c r="G16" s="19">
         <f>'Bolda Stefan'!$F16*24</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -5937,7 +5963,7 @@
   <dimension ref="A1:W996"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:E27"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/administratives/2020S_CE KT_Zeitaufzeichnung_Gruppe9.xlsx
+++ b/administratives/2020S_CE KT_Zeitaufzeichnung_Gruppe9.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Desktop\CEKT-Web-master\administratives\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Dropbox\AAA OwnShare\JKU-Linz\4. Sem\CE KT Web\CEKT-Web\administratives\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4ECC9F5-3089-47C0-8AEF-DAF9C7D5794C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCD68AA-1709-416F-938B-F25BC24699E5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="64">
   <si>
     <t>Name:</t>
   </si>
@@ -223,6 +223,9 @@
   </si>
   <si>
     <t>Materialize Bootstrap einarbeitung, design UI</t>
+  </si>
+  <si>
+    <t>Erfahrungsbericht</t>
   </si>
 </sst>
 </file>
@@ -896,7 +899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -1025,7 +1028,7 @@
       </c>
       <c r="B8" s="23">
         <f>SUMIF('Deutsch Thomas'!$E$5:$E$28,Übersicht!$A8,'Deutsch Thomas'!$G$5:$G$28)</f>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="C8" s="7">
         <f>SUMIF('Bolda Stefan'!$E$6:$E$27,Übersicht!$A8,'Bolda Stefan'!$G$5:$G$27)</f>
@@ -1037,7 +1040,7 @@
       </c>
       <c r="E8" s="7">
         <f>SUM(Übersicht!$B8:$D8)</f>
-        <v>0</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1067,7 +1070,7 @@
       </c>
       <c r="B10" s="12">
         <f t="shared" ref="B10:D10" si="0">SUM(B4:B9)</f>
-        <v>71.083333333333343</v>
+        <v>76.583333333333343</v>
       </c>
       <c r="C10" s="12">
         <f t="shared" si="0"/>
@@ -1079,7 +1082,7 @@
       </c>
       <c r="E10" s="12">
         <f>SUM(Übersicht!$B10:$D10)</f>
-        <v>203.16666666666669</v>
+        <v>208.66666666666669</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2085,8 +2088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W997"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:E22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2113,7 +2116,7 @@
       </c>
       <c r="E1" s="23">
         <f>SUM('Deutsch Thomas'!$G$5:$G$28)</f>
-        <v>71.083333333333343</v>
+        <v>76.583333333333343</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2894,18 +2897,28 @@
       <c r="W22" s="8"/>
     </row>
     <row r="23" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
+      <c r="A23" s="9">
+        <v>43994</v>
+      </c>
+      <c r="B23" s="10">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C23" s="10">
+        <v>0.5625</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="F23" s="10">
         <f>'Deutsch Thomas'!$C23-'Deutsch Thomas'!$B23</f>
-        <v>0</v>
+        <v>0.22916666666666669</v>
       </c>
       <c r="G23" s="19">
         <f>'Deutsch Thomas'!$F23*24</f>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
